--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\base-service\src\main\resources\script\db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D21D077-564E-476E-88B5-FCDC894104EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -30,12 +36,20 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="323">
   <si>
     <r>
       <rPr>
@@ -51,7 +65,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>merge</t>
     </r>
@@ -81,7 +94,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
     </r>
@@ -99,7 +111,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -117,7 +128,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
     </r>
@@ -211,7 +221,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -229,7 +238,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -247,7 +255,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -267,7 +274,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -285,7 +291,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -305,7 +310,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -325,7 +329,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -354,7 +357,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>=</t>
     </r>
@@ -383,7 +385,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -401,7 +402,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
     </r>
@@ -419,7 +419,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -437,7 +436,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -455,7 +453,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>!</t>
     </r>
@@ -484,7 +481,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -502,7 +498,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -520,7 +515,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -538,7 +532,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -567,7 +560,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -585,7 +577,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -603,7 +594,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -622,7 +612,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -640,7 +629,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
 </t>
@@ -659,7 +647,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -688,7 +675,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
     </r>
@@ -706,7 +692,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -729,7 +714,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -747,7 +731,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -765,7 +748,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -783,7 +765,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -801,7 +782,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -830,7 +810,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -857,7 +836,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -885,7 +863,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -903,7 +880,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -926,7 +902,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
     </r>
@@ -944,7 +919,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -962,7 +936,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:
 _ID</t>
@@ -981,7 +954,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 _DATE </t>
@@ -1000,7 +972,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 </t>
@@ -1019,7 +990,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
     </r>
@@ -1039,7 +1009,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -1058,7 +1027,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:
 yyyy-MM-dd HH:mm:ss
@@ -1074,7 +1042,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
     </r>
@@ -1094,7 +1061,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
     </r>
@@ -1123,7 +1089,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1141,7 +1106,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1161,7 +1125,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1191,7 +1154,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1209,7 +1171,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1227,7 +1188,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1259,7 +1219,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -1277,7 +1236,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
     </r>
@@ -1295,7 +1253,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1313,7 +1270,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1354,7 +1310,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1395,7 +1350,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1427,7 +1381,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1445,7 +1398,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1463,7 +1415,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1481,7 +1432,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1504,7 +1454,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1522,7 +1471,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1540,7 +1488,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1558,7 +1505,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1607,7 +1553,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:</t>
     </r>
@@ -1625,7 +1570,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1643,7 +1587,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
     </r>
@@ -1662,7 +1605,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1680,7 +1622,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
     </r>
@@ -1698,7 +1639,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
     </r>
@@ -1716,7 +1656,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
 </t>
@@ -1735,7 +1674,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1753,7 +1691,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
     </r>
@@ -1771,7 +1708,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
     </r>
@@ -1789,7 +1725,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
 </t>
@@ -1848,7 +1783,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1877,7 +1811,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1895,7 +1828,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -1994,7 +1926,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>gitlab</t>
     </r>
@@ -2017,7 +1948,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>gitlab</t>
     </r>
@@ -2049,7 +1979,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>gitlab</t>
     </r>
@@ -2064,29 +1993,6 @@
     </r>
   </si>
   <si>
-    <t>project.deploy.admin</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>gitlab</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>部署管理员</t>
-    </r>
-  </si>
-  <si>
     <t>site.admin</t>
   </si>
   <si>
@@ -2257,7 +2163,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>site</t>
     </r>
@@ -2289,7 +2194,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>site</t>
     </r>
@@ -2366,7 +2270,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -2401,7 +2304,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -2436,7 +2338,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -2471,7 +2372,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -2506,7 +2406,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -2541,7 +2440,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -2576,7 +2474,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -2617,7 +2514,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -2718,7 +2614,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>(</t>
     </r>
@@ -2736,7 +2632,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2765,7 +2661,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>(</t>
     </r>
@@ -2783,7 +2679,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2824,7 +2720,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>/</t>
     </r>
@@ -2856,7 +2751,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>/</t>
     </r>
@@ -3207,14 +3101,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="38">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3225,19 +3113,18 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -3269,6 +3156,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3281,154 +3169,17 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="Droid Sans Fallback"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3440,13 +3191,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3470,10 +3220,15 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="DengXian"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3510,194 +3265,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -3813,252 +3382,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="57">
@@ -4092,19 +3425,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="18" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="18" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4113,7 +3446,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="18" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -4122,157 +3455,112 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="18" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="18" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="18" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="18" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="18" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="18" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="18" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="18" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="18" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="18" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="解释性文本" xfId="2" builtinId="53"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -4345,6 +3633,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4602,189 +3893,189 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="2" width="10.5037037037037" style="29" customWidth="1"/>
-    <col min="3" max="3" width="116.696296296296" customWidth="1"/>
-    <col min="4" max="4" width="10.5037037037037" style="17" customWidth="1"/>
-    <col min="5" max="1025" width="10.5037037037037" customWidth="1"/>
+    <col min="1" max="2" width="10.5" style="29" customWidth="1"/>
+    <col min="3" max="3" width="116.69921875" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="17" customWidth="1"/>
+    <col min="5" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.05" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.05" customHeight="1">
       <c r="A1" s="30"/>
-      <c r="C1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-    </row>
-    <row r="2" ht="15.75" spans="5:5">
-      <c r="E2" s="33"/>
-    </row>
-    <row r="3" ht="49.05" customHeight="1" spans="3:7">
-      <c r="C3" s="34" t="s">
+      <c r="C1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="E2" s="32"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.05" customHeight="1">
+      <c r="C3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35" t="s">
+      <c r="D3" s="53"/>
+      <c r="E3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-    </row>
-    <row r="4" ht="30" spans="3:7">
-      <c r="C4" s="36" t="s">
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+    </row>
+    <row r="4" spans="1:8" ht="31.8">
+      <c r="C4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="35" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="15.75" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="30"/>
       <c r="C5" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="3:5">
-      <c r="C7" s="40" t="s">
+    <row r="7" spans="1:8">
+      <c r="C7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="38" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="3:5">
-      <c r="C8" s="43" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="45"/>
-    </row>
-    <row r="9" ht="118.5" spans="3:6">
-      <c r="C9" s="46" t="s">
+      <c r="E8" s="41"/>
+    </row>
+    <row r="9" spans="1:8" ht="157.80000000000001">
+      <c r="C9" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="44" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="148.5" spans="3:5">
-      <c r="C10" s="49" t="s">
+    <row r="10" spans="1:8" ht="189.6">
+      <c r="C10" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="44" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="85.5" customHeight="1" spans="3:5">
-      <c r="C11" s="43" t="s">
+    <row r="11" spans="1:8" ht="85.5" customHeight="1">
+      <c r="C11" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="44" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" ht="30" spans="3:5">
-      <c r="C12" s="43" t="s">
+    <row r="12" spans="1:8" ht="47.4">
+      <c r="C12" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="46" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" ht="15.75" spans="3:5">
-      <c r="C13" s="43"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
-    </row>
-    <row r="14" ht="15.75" spans="3:5">
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="45"/>
-    </row>
-    <row r="15" ht="104.25" spans="3:5">
-      <c r="C15" s="51" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="39"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+    </row>
+    <row r="15" spans="1:8" ht="126.6">
+      <c r="C15" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="49" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" ht="15.75" spans="3:5">
-      <c r="C19" s="54" t="s">
+    <row r="19" spans="3:5">
+      <c r="C19" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-    </row>
-    <row r="20" ht="15.75" spans="3:4">
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+    </row>
+    <row r="20" spans="3:5">
       <c r="C20" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="15.75" spans="3:4">
+    <row r="21" spans="3:5">
       <c r="C21" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="15.75" spans="3:4">
+    <row r="22" spans="3:5">
       <c r="C22" s="27" t="s">
         <v>35</v>
       </c>
@@ -4792,7 +4083,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="15.75" spans="3:4">
+    <row r="23" spans="3:5">
       <c r="C23" s="27" t="s">
         <v>37</v>
       </c>
@@ -4800,93 +4091,92 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="55" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="34"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1" spans="3:5">
-      <c r="C26" s="44" t="s">
+      <c r="E25" s="53"/>
+    </row>
+    <row r="26" spans="3:5" ht="15.75" customHeight="1">
+      <c r="C26" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="34"/>
-    </row>
-    <row r="27" ht="30" spans="3:3">
-      <c r="C27" s="56" t="s">
+      <c r="E26" s="53"/>
+    </row>
+    <row r="27" spans="3:5" ht="31.8">
+      <c r="C27" s="51" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="D7:J10"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="2" width="10.5037037037037" customWidth="1"/>
-    <col min="3" max="3" width="20.2" customWidth="1"/>
+    <col min="1" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="20.19921875" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="42" customWidth="1"/>
-    <col min="6" max="6" width="37.6962962962963" customWidth="1"/>
-    <col min="7" max="7" width="24.5037037037037" customWidth="1"/>
-    <col min="8" max="8" width="16.2962962962963" customWidth="1"/>
-    <col min="9" max="9" width="17.2" customWidth="1"/>
-    <col min="10" max="1025" width="10.5037037037037" customWidth="1"/>
+    <col min="6" max="6" width="37.69921875" customWidth="1"/>
+    <col min="7" max="7" width="24.5" customWidth="1"/>
+    <col min="8" max="8" width="16.296875" customWidth="1"/>
+    <col min="9" max="9" width="17.19921875" customWidth="1"/>
+    <col min="10" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="15.75" spans="4:10">
+    <row r="7" spans="4:10">
       <c r="D7" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>48</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G7" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="I7" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="J7" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="I7" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" spans="5:10">
+    </row>
+    <row r="8" spans="4:10">
       <c r="E8" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F8" t="str">
         <f>IAM_ROLE!E8</f>
@@ -4897,18 +4187,18 @@
         <v>admin</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" spans="5:10">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10">
       <c r="E9" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F9" t="str">
         <f>IAM_ROLE!E11</f>
@@ -4919,7 +4209,7 @@
         <v>admin</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -4928,9 +4218,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="5:10">
+    <row r="10" spans="4:10">
       <c r="E10" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F10" t="str">
         <f>IAM_ROLE!E9</f>
@@ -4941,18 +4231,19 @@
         <v>admin</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"Page &amp;P</oddFooter>
@@ -4961,35 +4252,34 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:AMK9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="3" width="9.8" style="10" customWidth="1"/>
-    <col min="4" max="4" width="20.2" style="10" customWidth="1"/>
-    <col min="5" max="5" width="26.2962962962963" style="10" customWidth="1"/>
-    <col min="6" max="6" width="21.6962962962963" style="10" customWidth="1"/>
-    <col min="7" max="7" width="23.2962962962963" style="10" customWidth="1"/>
-    <col min="8" max="8" width="25.8" style="10" customWidth="1"/>
-    <col min="9" max="9" width="24.2962962962963" style="10" customWidth="1"/>
-    <col min="10" max="1025" width="9.8" style="10" customWidth="1"/>
+    <col min="1" max="3" width="9.796875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="20.19921875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="26.296875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="21.69921875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="23.296875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="25.796875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="24.296875" style="10" customWidth="1"/>
+    <col min="10" max="1025" width="9.796875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="A1" s="11"/>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="7" ht="15.75" spans="4:10">
+    <row r="7" spans="1:10" ht="16.2">
       <c r="D7" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>48</v>
@@ -5001,79 +4291,78 @@
         <v>49</v>
       </c>
       <c r="H7" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" ht="16.2">
+      <c r="E8" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="H8" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" ht="15.75" spans="5:10">
-      <c r="E8" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" s="13" t="s">
+      <c r="I8" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" ht="16.2">
+      <c r="E9" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="F9" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" ht="15.75" spans="5:9">
-      <c r="E9" s="9" t="s">
+      <c r="H9" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="G9" s="9" t="s">
+      <c r="I9" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>204</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="D7:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="3" width="10.2" customWidth="1"/>
-    <col min="4" max="4" width="11.8" customWidth="1"/>
-    <col min="5" max="5" width="10.2" customWidth="1"/>
-    <col min="6" max="6" width="13.6962962962963" customWidth="1"/>
-    <col min="7" max="7" width="23.8" customWidth="1"/>
-    <col min="8" max="8" width="20.6962962962963" customWidth="1"/>
-    <col min="9" max="9" width="20.5037037037037" customWidth="1"/>
-    <col min="10" max="1025" width="10.2" customWidth="1"/>
+    <col min="1" max="3" width="10.19921875" customWidth="1"/>
+    <col min="4" max="4" width="11.796875" customWidth="1"/>
+    <col min="5" max="5" width="10.19921875" customWidth="1"/>
+    <col min="6" max="6" width="13.69921875" customWidth="1"/>
+    <col min="7" max="7" width="23.796875" customWidth="1"/>
+    <col min="8" max="8" width="20.69921875" customWidth="1"/>
+    <col min="9" max="9" width="20.5" customWidth="1"/>
+    <col min="10" max="1025" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="15.75" spans="4:9">
+    <row r="7" spans="4:9" ht="16.2">
       <c r="D7" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>48</v>
@@ -5082,59 +4371,58 @@
         <v>50</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" ht="15.75" spans="4:9">
+    <row r="8" spans="4:9" ht="16.2">
       <c r="D8" s="10"/>
       <c r="E8" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I8" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="D7:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="3" width="10.2" customWidth="1"/>
-    <col min="4" max="4" width="18.6962962962963" customWidth="1"/>
-    <col min="5" max="6" width="10.2" customWidth="1"/>
+    <col min="1" max="3" width="10.19921875" customWidth="1"/>
+    <col min="4" max="4" width="18.69921875" customWidth="1"/>
+    <col min="5" max="6" width="10.19921875" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
-    <col min="8" max="8" width="23.8" customWidth="1"/>
-    <col min="9" max="9" width="21.6962962962963" customWidth="1"/>
-    <col min="10" max="1025" width="10.2" customWidth="1"/>
+    <col min="8" max="8" width="23.796875" customWidth="1"/>
+    <col min="9" max="9" width="21.69921875" customWidth="1"/>
+    <col min="10" max="1025" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="15.75" spans="4:10">
+    <row r="7" spans="4:10" ht="16.2">
       <c r="D7" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>48</v>
@@ -5143,89 +4431,88 @@
         <v>50</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" ht="15.75" spans="4:10">
+    <row r="8" spans="4:10" ht="16.2">
       <c r="D8" s="10"/>
       <c r="E8" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G8" s="10" t="str">
         <f>FD_LOOKUP!E8</f>
         <v>TIME_ZONE</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" ht="15.75" spans="4:10">
+    <row r="9" spans="4:10" ht="16.2">
       <c r="D9" s="10"/>
       <c r="E9" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G9" s="10" t="str">
         <f>FD_LOOKUP!E8</f>
         <v>TIME_ZONE</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J9" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="D7:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="3" width="10.2" customWidth="1"/>
+    <col min="1" max="3" width="10.19921875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="13.2" customWidth="1"/>
+    <col min="5" max="5" width="13.19921875" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="17.5037037037037" customWidth="1"/>
-    <col min="8" max="8" width="20.5037037037037" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="20.5" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="20.5037037037037" customWidth="1"/>
-    <col min="11" max="11" width="12.6962962962963" customWidth="1"/>
-    <col min="12" max="1025" width="10.2" customWidth="1"/>
+    <col min="10" max="10" width="20.5" customWidth="1"/>
+    <col min="11" max="11" width="12.69921875" customWidth="1"/>
+    <col min="12" max="1025" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="15.75" spans="4:12">
+    <row r="7" spans="4:12">
       <c r="D7" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>48</v>
@@ -5234,85 +4521,84 @@
         <v>49</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="K7" s="8" t="s">
+    </row>
+    <row r="8" spans="4:12">
+      <c r="E8" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="L7" s="8" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" spans="5:12">
-      <c r="E8" s="7" t="s">
-        <v>222</v>
-      </c>
       <c r="F8" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>226</v>
-      </c>
       <c r="L8" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="D7:N8"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="3" width="10.2" customWidth="1"/>
-    <col min="4" max="4" width="26.2962962962963" customWidth="1"/>
+    <col min="1" max="3" width="10.19921875" customWidth="1"/>
+    <col min="4" max="4" width="26.296875" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="7" width="12.5037037037037" customWidth="1"/>
-    <col min="8" max="8" width="19.2962962962963" customWidth="1"/>
-    <col min="9" max="9" width="17.5037037037037" customWidth="1"/>
-    <col min="10" max="10" width="13.5037037037037" customWidth="1"/>
-    <col min="11" max="11" width="17.5037037037037" customWidth="1"/>
-    <col min="12" max="12" width="22.2" customWidth="1"/>
-    <col min="13" max="13" width="17.2962962962963" customWidth="1"/>
-    <col min="14" max="14" width="21.6962962962963" customWidth="1"/>
-    <col min="15" max="1025" width="10.2" customWidth="1"/>
+    <col min="6" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="19.296875" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="11" max="11" width="17.5" customWidth="1"/>
+    <col min="12" max="12" width="22.19921875" customWidth="1"/>
+    <col min="13" max="13" width="17.296875" customWidth="1"/>
+    <col min="14" max="14" width="21.69921875" customWidth="1"/>
+    <col min="15" max="1025" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="15.75" spans="4:14">
+    <row r="7" spans="4:14">
       <c r="D7" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>48</v>
@@ -5324,36 +4610,36 @@
         <v>49</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I7" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="N7" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="M7" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" spans="5:14">
+    </row>
+    <row r="8" spans="4:14">
       <c r="E8" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -5378,29 +4664,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="D7:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1025" width="10.6" customWidth="1"/>
+    <col min="1" max="1025" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="15.75" spans="4:9">
+    <row r="7" spans="4:9">
       <c r="D7" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>48</v>
@@ -5415,59 +4700,58 @@
         <v>49</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" spans="4:9">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9">
       <c r="D8" s="6"/>
       <c r="E8" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I8" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="D7:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="3" width="10.6" customWidth="1"/>
-    <col min="4" max="4" width="23.2" customWidth="1"/>
-    <col min="5" max="5" width="19.6" customWidth="1"/>
+    <col min="1" max="3" width="10.59765625" customWidth="1"/>
+    <col min="4" max="4" width="23.19921875" customWidth="1"/>
+    <col min="5" max="5" width="19.59765625" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="16.2962962962963" customWidth="1"/>
-    <col min="9" max="9" width="15.6" customWidth="1"/>
-    <col min="10" max="10" width="14.5037037037037" customWidth="1"/>
-    <col min="11" max="1025" width="10.6" customWidth="1"/>
+    <col min="8" max="8" width="16.296875" customWidth="1"/>
+    <col min="9" max="9" width="15.59765625" customWidth="1"/>
+    <col min="10" max="10" width="14.5" customWidth="1"/>
+    <col min="11" max="1025" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="15.75" spans="4:10">
+    <row r="7" spans="4:10">
       <c r="D7" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>48</v>
@@ -5482,24 +4766,24 @@
         <v>49</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J7" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10">
+      <c r="E8" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G8" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="8" ht="15.75" spans="5:10">
-      <c r="E8" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="G8" t="s">
-        <v>241</v>
-      </c>
       <c r="H8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I8" s="4">
         <v>1</v>
@@ -5509,48 +4793,47 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="D7:H77"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="4" max="4" width="25.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="11.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="25.8984375" customWidth="1"/>
+    <col min="6" max="6" width="11.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="15.75" spans="4:8">
+    <row r="7" spans="4:8">
       <c r="D7" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" spans="5:8">
+    </row>
+    <row r="8" spans="4:8">
       <c r="E8" s="2"/>
       <c r="F8" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -5559,10 +4842,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="5:8">
+    <row r="9" spans="4:8">
       <c r="E9" s="2"/>
       <c r="F9" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -5571,12 +4854,12 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="5:8">
+    <row r="10" spans="4:8">
       <c r="E10" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -5585,10 +4868,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" ht="15.75" spans="5:8">
+    <row r="11" spans="4:8">
       <c r="E11" s="2"/>
       <c r="F11" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G11" s="3">
         <v>1</v>
@@ -5597,12 +4880,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" ht="15.75" spans="5:8">
+    <row r="12" spans="4:8">
       <c r="E12" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -5611,12 +4894,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" ht="15.75" spans="5:8">
+    <row r="13" spans="4:8">
       <c r="E13" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>
@@ -5625,10 +4908,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" ht="15.75" spans="5:8">
+    <row r="14" spans="4:8">
       <c r="E14" s="2"/>
       <c r="F14" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -5637,10 +4920,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="15" ht="15.75" spans="5:8">
+    <row r="15" spans="4:8">
       <c r="E15" s="2"/>
       <c r="F15" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -5649,10 +4932,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="16" ht="15.75" spans="5:8">
+    <row r="16" spans="4:8">
       <c r="E16" s="2"/>
       <c r="F16" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G16" s="3">
         <v>0</v>
@@ -5661,10 +4944,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" ht="15.75" spans="5:8">
+    <row r="17" spans="5:8">
       <c r="E17" s="2"/>
       <c r="F17" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
@@ -5673,10 +4956,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="18" ht="15.75" spans="5:8">
+    <row r="18" spans="5:8">
       <c r="E18" s="2"/>
       <c r="F18" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -5685,10 +4968,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="19" ht="15.75" spans="5:8">
+    <row r="19" spans="5:8">
       <c r="E19" s="2"/>
       <c r="F19" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G19" s="3">
         <v>1</v>
@@ -5697,12 +4980,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="20" ht="15.75" spans="5:8">
+    <row r="20" spans="5:8">
       <c r="E20" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -5711,10 +4994,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="21" ht="15.75" spans="5:8">
+    <row r="21" spans="5:8">
       <c r="E21" s="2"/>
       <c r="F21" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
@@ -5723,10 +5006,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="22" ht="15.75" spans="5:8">
+    <row r="22" spans="5:8">
       <c r="E22" s="2"/>
       <c r="F22" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -5735,10 +5018,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="23" ht="15.75" spans="5:8">
+    <row r="23" spans="5:8">
       <c r="E23" s="2"/>
       <c r="F23" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G23" s="3">
         <v>1</v>
@@ -5747,10 +5030,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="24" ht="15.75" spans="5:8">
+    <row r="24" spans="5:8">
       <c r="E24" s="2"/>
       <c r="F24" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G24" s="3">
         <v>1</v>
@@ -5759,10 +5042,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="25" ht="15.75" spans="5:8">
+    <row r="25" spans="5:8">
       <c r="E25" s="2"/>
       <c r="F25" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G25" s="3">
         <v>0</v>
@@ -5771,10 +5054,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="26" ht="15.75" spans="5:8">
+    <row r="26" spans="5:8">
       <c r="E26" s="2"/>
       <c r="F26" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -5783,12 +5066,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="27" ht="15.75" spans="5:8">
+    <row r="27" spans="5:8">
       <c r="E27" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
@@ -5797,10 +5080,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="28" ht="15.75" spans="5:8">
+    <row r="28" spans="5:8">
       <c r="E28" s="2"/>
       <c r="F28" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G28" s="3">
         <v>0</v>
@@ -5809,10 +5092,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="29" ht="15.75" spans="5:8">
+    <row r="29" spans="5:8">
       <c r="E29" s="2"/>
       <c r="F29" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -5821,12 +5104,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="30" ht="15.75" spans="5:8">
+    <row r="30" spans="5:8">
       <c r="E30" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G30" s="3">
         <v>0</v>
@@ -5835,10 +5118,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="31" ht="15.75" spans="5:8">
+    <row r="31" spans="5:8">
       <c r="E31" s="2"/>
       <c r="F31" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G31" s="3">
         <v>0</v>
@@ -5847,10 +5130,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" ht="15.75" spans="5:8">
+    <row r="32" spans="5:8">
       <c r="E32" s="2"/>
       <c r="F32" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -5859,12 +5142,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="33" ht="15.75" spans="5:8">
+    <row r="33" spans="5:8">
       <c r="E33" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
@@ -5873,10 +5156,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="34" ht="15.75" spans="5:8">
+    <row r="34" spans="5:8">
       <c r="E34" s="2"/>
       <c r="F34" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G34" s="3">
         <v>1</v>
@@ -5885,10 +5168,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="35" ht="15.75" spans="5:8">
+    <row r="35" spans="5:8">
       <c r="E35" s="2"/>
       <c r="F35" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G35" s="3">
         <v>1</v>
@@ -5897,12 +5180,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="36" ht="15.75" spans="5:8">
+    <row r="36" spans="5:8">
       <c r="E36" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G36" s="3">
         <v>0</v>
@@ -5911,10 +5194,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="37" ht="15.75" spans="5:8">
+    <row r="37" spans="5:8">
       <c r="E37" s="2"/>
       <c r="F37" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G37" s="3">
         <v>0</v>
@@ -5923,10 +5206,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="38" ht="15.75" spans="5:8">
+    <row r="38" spans="5:8">
       <c r="E38" s="2"/>
       <c r="F38" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G38" s="3">
         <v>0</v>
@@ -5935,10 +5218,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="39" ht="15.75" spans="5:8">
+    <row r="39" spans="5:8">
       <c r="E39" s="2"/>
       <c r="F39" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G39" s="3">
         <v>0</v>
@@ -5947,10 +5230,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="40" ht="15.75" spans="5:8">
+    <row r="40" spans="5:8">
       <c r="E40" s="2"/>
       <c r="F40" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G40" s="3">
         <v>0</v>
@@ -5959,10 +5242,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="41" ht="15.75" spans="5:8">
+    <row r="41" spans="5:8">
       <c r="E41" s="2"/>
       <c r="F41" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -5971,10 +5254,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="42" ht="15.75" spans="5:8">
+    <row r="42" spans="5:8">
       <c r="E42" s="2"/>
       <c r="F42" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -5983,12 +5266,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="43" ht="15.75" spans="5:8">
+    <row r="43" spans="5:8">
       <c r="E43" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -5997,10 +5280,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="44" ht="15.75" spans="5:8">
+    <row r="44" spans="5:8">
       <c r="E44" s="2"/>
       <c r="F44" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G44" s="3">
         <v>1</v>
@@ -6009,10 +5292,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="45" ht="15.75" spans="5:8">
+    <row r="45" spans="5:8">
       <c r="E45" s="2"/>
       <c r="F45" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G45" s="3">
         <v>1</v>
@@ -6021,12 +5304,12 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="46" ht="15.75" spans="5:8">
+    <row r="46" spans="5:8">
       <c r="E46" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
@@ -6035,12 +5318,12 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="47" ht="15.75" spans="5:8">
+    <row r="47" spans="5:8">
       <c r="E47" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -6049,10 +5332,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="48" ht="15.75" spans="5:8">
+    <row r="48" spans="5:8">
       <c r="E48" s="2"/>
       <c r="F48" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -6061,10 +5344,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="49" ht="15.75" spans="5:8">
+    <row r="49" spans="5:8">
       <c r="E49" s="2"/>
       <c r="F49" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -6073,10 +5356,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="50" ht="15.75" spans="5:8">
+    <row r="50" spans="5:8">
       <c r="E50" s="2"/>
       <c r="F50" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G50" s="3">
         <v>0</v>
@@ -6085,10 +5368,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="51" ht="15.75" spans="5:8">
+    <row r="51" spans="5:8">
       <c r="E51" s="2"/>
       <c r="F51" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G51" s="3">
         <v>0</v>
@@ -6097,10 +5380,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="52" ht="15.75" spans="5:8">
+    <row r="52" spans="5:8">
       <c r="E52" s="2"/>
       <c r="F52" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -6109,12 +5392,12 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="53" ht="15.75" spans="5:8">
+    <row r="53" spans="5:8">
       <c r="E53" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G53" s="3">
         <v>0</v>
@@ -6123,10 +5406,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="54" ht="15.75" spans="5:8">
+    <row r="54" spans="5:8">
       <c r="E54" s="2"/>
       <c r="F54" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G54" s="3">
         <v>0</v>
@@ -6135,10 +5418,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="55" ht="15.75" spans="5:8">
+    <row r="55" spans="5:8">
       <c r="E55" s="2"/>
       <c r="F55" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G55" s="3">
         <v>0</v>
@@ -6147,10 +5430,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="56" ht="15.75" spans="5:8">
+    <row r="56" spans="5:8">
       <c r="E56" s="2"/>
       <c r="F56" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G56" s="3">
         <v>1</v>
@@ -6159,12 +5442,12 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="57" ht="15.75" spans="5:8">
+    <row r="57" spans="5:8">
       <c r="E57" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -6173,10 +5456,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="58" ht="15.75" spans="5:8">
+    <row r="58" spans="5:8">
       <c r="E58" s="2"/>
       <c r="F58" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -6185,10 +5468,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="59" ht="15.75" spans="5:8">
+    <row r="59" spans="5:8">
       <c r="E59" s="2"/>
       <c r="F59" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -6197,10 +5480,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="60" ht="15.75" spans="5:8">
+    <row r="60" spans="5:8">
       <c r="E60" s="2"/>
       <c r="F60" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G60" s="3">
         <v>0</v>
@@ -6209,10 +5492,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="61" ht="15.75" spans="5:8">
+    <row r="61" spans="5:8">
       <c r="E61" s="2"/>
       <c r="F61" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G61" s="3">
         <v>1</v>
@@ -6221,12 +5504,12 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="62" ht="15.75" spans="5:8">
+    <row r="62" spans="5:8">
       <c r="E62" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -6235,10 +5518,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="63" ht="15.75" spans="5:8">
+    <row r="63" spans="5:8">
       <c r="E63" s="2"/>
       <c r="F63" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G63" s="3">
         <v>0</v>
@@ -6247,10 +5530,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="64" ht="15.75" spans="5:8">
+    <row r="64" spans="5:8">
       <c r="E64" s="2"/>
       <c r="F64" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G64" s="3">
         <v>0</v>
@@ -6259,12 +5542,12 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="65" ht="15.75" spans="5:8">
+    <row r="65" spans="5:8">
       <c r="E65" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G65" s="3">
         <v>0</v>
@@ -6273,10 +5556,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="66" ht="15.75" spans="5:8">
+    <row r="66" spans="5:8">
       <c r="E66" s="2"/>
       <c r="F66" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G66" s="3">
         <v>0</v>
@@ -6285,10 +5568,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="67" ht="15.75" spans="5:8">
+    <row r="67" spans="5:8">
       <c r="E67" s="2"/>
       <c r="F67" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G67" s="3">
         <v>0</v>
@@ -6297,10 +5580,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="68" ht="15.75" spans="5:8">
+    <row r="68" spans="5:8">
       <c r="E68" s="2"/>
       <c r="F68" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G68" s="3">
         <v>1</v>
@@ -6309,10 +5592,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="69" ht="15.75" spans="5:8">
+    <row r="69" spans="5:8">
       <c r="E69" s="2"/>
       <c r="F69" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G69" s="3">
         <v>1</v>
@@ -6321,12 +5604,12 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="70" ht="15.75" spans="5:8">
+    <row r="70" spans="5:8">
       <c r="E70" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -6335,10 +5618,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="71" ht="15.75" spans="5:8">
+    <row r="71" spans="5:8">
       <c r="E71" s="2"/>
       <c r="F71" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G71" s="3">
         <v>0</v>
@@ -6347,10 +5630,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="72" ht="15.75" spans="5:8">
+    <row r="72" spans="5:8">
       <c r="E72" s="2"/>
       <c r="F72" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G72" s="3">
         <v>0</v>
@@ -6359,10 +5642,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="73" ht="15.75" spans="5:8">
+    <row r="73" spans="5:8">
       <c r="E73" s="2"/>
       <c r="F73" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G73" s="3">
         <v>0</v>
@@ -6371,10 +5654,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="74" ht="15.75" spans="5:8">
+    <row r="74" spans="5:8">
       <c r="E74" s="2"/>
       <c r="F74" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G74" s="3">
         <v>0</v>
@@ -6383,10 +5666,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="75" ht="15.75" spans="5:8">
+    <row r="75" spans="5:8">
       <c r="E75" s="2"/>
       <c r="F75" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G75" s="3">
         <v>0</v>
@@ -6395,10 +5678,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="76" ht="15.75" spans="5:8">
+    <row r="76" spans="5:8">
       <c r="E76" s="2"/>
       <c r="F76" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G76" s="3">
         <v>0</v>
@@ -6407,10 +5690,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="77" ht="15.75" spans="5:8">
+    <row r="77" spans="5:8">
       <c r="E77" s="2"/>
       <c r="F77" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G77" s="3">
         <v>1</v>
@@ -6420,30 +5703,30 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="3" width="10.5037037037037" customWidth="1"/>
+    <col min="1" max="3" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="7" width="10.5037037037037" customWidth="1"/>
+    <col min="5" max="7" width="10.5" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="1025" width="10.5037037037037" customWidth="1"/>
+    <col min="9" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="15" t="s">
         <v>44</v>
       </c>
@@ -6457,7 +5740,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="4:8">
+    <row r="7" spans="1:8">
       <c r="D7" s="7" t="s">
         <v>47</v>
       </c>
@@ -6474,7 +5757,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="5:8">
+    <row r="8" spans="1:8">
       <c r="E8" s="17" t="s">
         <v>52</v>
       </c>
@@ -6489,8 +5772,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"Page &amp;P</oddFooter>
@@ -6499,25 +5783,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="D7:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="D7:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="4" width="10.2" customWidth="1"/>
-    <col min="5" max="6" width="28.8" customWidth="1"/>
-    <col min="7" max="7" width="10.2" customWidth="1"/>
-    <col min="8" max="8" width="14.5037037037037" customWidth="1"/>
-    <col min="9" max="9" width="22.2" customWidth="1"/>
-    <col min="10" max="1025" width="10.2" customWidth="1"/>
+    <col min="1" max="4" width="10.19921875" customWidth="1"/>
+    <col min="5" max="6" width="28.796875" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="22.19921875" customWidth="1"/>
+    <col min="10" max="1025" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="15.75" spans="4:9">
+    <row r="7" spans="4:9">
       <c r="D7" s="7" t="s">
         <v>54</v>
       </c>
@@ -6537,7 +5820,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="5:9">
+    <row r="8" spans="4:9">
       <c r="E8" s="7" t="s">
         <v>59</v>
       </c>
@@ -6554,7 +5837,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="5:9">
+    <row r="9" spans="4:9">
       <c r="E9" s="7" t="s">
         <v>63</v>
       </c>
@@ -6571,7 +5854,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="5:9">
+    <row r="10" spans="4:9">
       <c r="E10" s="7" t="s">
         <v>66</v>
       </c>
@@ -6588,7 +5871,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" ht="15.75" spans="5:9">
+    <row r="11" spans="4:9">
       <c r="E11" s="7" t="s">
         <v>68</v>
       </c>
@@ -6605,7 +5888,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" ht="15.75" spans="5:9">
+    <row r="12" spans="4:9">
       <c r="E12" s="7" t="s">
         <v>70</v>
       </c>
@@ -6622,7 +5905,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" ht="15.75" spans="5:9">
+    <row r="13" spans="4:9">
       <c r="E13" s="7" t="s">
         <v>72</v>
       </c>
@@ -6633,136 +5916,118 @@
         <v>60</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="14" ht="15.75" spans="5:9">
-      <c r="E14" s="7" t="s">
+      <c r="I13" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="I14" t="s">
-        <v>76</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="3" width="10.5037037037037" customWidth="1"/>
-    <col min="4" max="4" width="10.6962962962963" customWidth="1"/>
-    <col min="5" max="5" width="30.8" customWidth="1"/>
-    <col min="6" max="6" width="22.8" customWidth="1"/>
+    <col min="1" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="10.69921875" customWidth="1"/>
+    <col min="5" max="5" width="30.796875" customWidth="1"/>
+    <col min="6" max="6" width="22.796875" customWidth="1"/>
     <col min="7" max="7" width="90" customWidth="1"/>
-    <col min="8" max="8" width="10.5037037037037" customWidth="1"/>
-    <col min="9" max="9" width="13.5037037037037" customWidth="1"/>
-    <col min="10" max="10" width="13.6962962962963" customWidth="1"/>
-    <col min="11" max="11" width="22.2" customWidth="1"/>
-    <col min="12" max="12" width="10.5037037037037" customWidth="1"/>
-    <col min="13" max="13" width="12.2962962962963" customWidth="1"/>
-    <col min="14" max="1025" width="10.5037037037037" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="13.69921875" customWidth="1"/>
+    <col min="11" max="11" width="22.19921875" customWidth="1"/>
+    <col min="12" max="12" width="10.5" customWidth="1"/>
+    <col min="13" max="13" width="12.296875" customWidth="1"/>
+    <col min="14" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:5">
+    <row r="1" spans="1:17">
       <c r="A1" s="15"/>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
     </row>
-    <row r="3" spans="6:7">
+    <row r="3" spans="1:17">
       <c r="F3" s="24"/>
       <c r="G3" s="25"/>
     </row>
-    <row r="7" ht="15.75" spans="1:17">
+    <row r="7" spans="1:17">
       <c r="A7" s="26"/>
       <c r="D7" s="27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>48</v>
       </c>
       <c r="F7" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="I7" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="J7" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>51</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O7" s="17"/>
       <c r="Q7" s="17"/>
     </row>
-    <row r="8" ht="15.75" spans="1:14">
+    <row r="8" spans="1:17">
       <c r="A8" s="26"/>
       <c r="E8" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" s="14" t="s">
+      <c r="I8" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="J8" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="K8" t="str">
         <f>FD_ORGANIZATION!E8</f>
         <v>运营组织</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -6772,34 +6037,33 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H8" r:id="rId1" display="admin@example.org"/>
+    <hyperlink ref="H8" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="D7:M14"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="5" width="34.8" customWidth="1"/>
-    <col min="6" max="6" width="55.5037037037037" customWidth="1"/>
-    <col min="7" max="1025" width="34.8" customWidth="1"/>
+    <col min="1" max="5" width="34.796875" customWidth="1"/>
+    <col min="6" max="6" width="55.5" customWidth="1"/>
+    <col min="7" max="1025" width="34.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="15.75" spans="4:13">
+    <row r="7" spans="4:13">
       <c r="D7" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>48</v>
@@ -6808,39 +6072,39 @@
         <v>50</v>
       </c>
       <c r="G7" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="J7" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>51</v>
       </c>
       <c r="M7" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="4:13">
+      <c r="E8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="8" ht="15.75" spans="5:13">
-      <c r="E8" s="7" t="s">
+      <c r="H8" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" t="s">
-        <v>100</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -6855,21 +6119,21 @@
         <v>1</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" spans="5:13">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="4:13">
       <c r="E9" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G9" t="s">
-        <v>103</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -6884,21 +6148,21 @@
         <v>1</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" spans="5:13">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="4:13">
       <c r="E10" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="H10" s="23" t="s">
         <v>106</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>108</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -6913,21 +6177,21 @@
         <v>1</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" spans="5:13">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="4:13">
       <c r="E11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="G11" t="s">
-        <v>111</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -6945,18 +6209,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" ht="15.75" spans="5:13">
+    <row r="12" spans="4:13">
       <c r="E12" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G12" t="s">
-        <v>114</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -6974,18 +6238,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" ht="15.75" spans="5:13">
+    <row r="13" spans="4:13">
       <c r="E13" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G13" t="s">
-        <v>117</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -7003,18 +6267,18 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" ht="15.75" spans="5:13">
+    <row r="14" spans="4:13">
       <c r="E14" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G14" t="s">
         <v>62</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -7033,8 +6297,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"Page &amp;P</oddFooter>
@@ -7043,26 +6308,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="D7:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="8" width="12.2" customWidth="1"/>
-    <col min="9" max="9" width="18.6962962962963" customWidth="1"/>
-    <col min="10" max="10" width="20.6962962962963" customWidth="1"/>
-    <col min="11" max="1023" width="12.2" customWidth="1"/>
-    <col min="1024" max="1025" width="9.6962962962963" customWidth="1"/>
+    <col min="1" max="8" width="12.19921875" customWidth="1"/>
+    <col min="9" max="9" width="18.69921875" customWidth="1"/>
+    <col min="10" max="10" width="20.69921875" customWidth="1"/>
+    <col min="11" max="1023" width="12.19921875" customWidth="1"/>
+    <col min="1024" max="1025" width="9.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="15.75" spans="4:14">
+    <row r="7" spans="4:14">
       <c r="D7" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>48</v>
@@ -7071,48 +6335,48 @@
         <v>50</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>56</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K7" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="M7" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="N7" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="M7" s="8" t="s">
+    </row>
+    <row r="8" spans="4:14">
+      <c r="E8" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="F8" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="8" ht="15.75" spans="5:14">
-      <c r="E8" s="8" t="s">
+      <c r="I8" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="H8" s="8" t="s">
+      <c r="J8" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>130</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -7121,30 +6385,30 @@
         <v>1</v>
       </c>
       <c r="M8" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="4:14">
+      <c r="E9" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="F9" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="9" ht="15.75" spans="5:14">
-      <c r="E9" s="8" t="s">
+      <c r="J9" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>135</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -7153,30 +6417,30 @@
         <v>1</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" spans="5:14">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="4:14">
       <c r="E10" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>64</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -7185,30 +6449,30 @@
         <v>1</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" spans="5:14">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="4:14">
       <c r="E11" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>61</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -7217,60 +6481,59 @@
         <v>1</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="D7:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="2" width="10.5037037037037" customWidth="1"/>
-    <col min="3" max="3" width="20.2" customWidth="1"/>
+    <col min="1" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="20.19921875" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="45.2962962962963" customWidth="1"/>
+    <col min="5" max="5" width="45.296875" customWidth="1"/>
     <col min="6" max="6" width="49" customWidth="1"/>
-    <col min="7" max="7" width="35.2" customWidth="1"/>
-    <col min="8" max="8" width="16.2962962962963" customWidth="1"/>
-    <col min="9" max="9" width="17.2" customWidth="1"/>
-    <col min="10" max="1025" width="10.5037037037037" customWidth="1"/>
+    <col min="7" max="7" width="35.19921875" customWidth="1"/>
+    <col min="8" max="8" width="16.296875" customWidth="1"/>
+    <col min="9" max="9" width="17.19921875" customWidth="1"/>
+    <col min="10" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="15.75" spans="4:9">
+    <row r="7" spans="4:9">
       <c r="D7" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>48</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" ht="15.75" spans="5:9">
+    <row r="8" spans="4:9">
       <c r="E8" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F8" s="21" t="str">
         <f>IAM_ROLE!E11</f>
@@ -7283,9 +6546,9 @@
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" ht="15.75" spans="5:7">
+    <row r="9" spans="4:9">
       <c r="E9" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F9" s="22" t="str">
         <f>IAM_ROLE!E11</f>
@@ -7296,9 +6559,9 @@
         <v>organization.owner</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="5:7">
+    <row r="10" spans="4:9">
       <c r="E10" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F10" s="22" t="str">
         <f>IAM_ROLE!E14</f>
@@ -7309,9 +6572,9 @@
         <v>project.owner</v>
       </c>
     </row>
-    <row r="11" ht="15.75" spans="5:7">
+    <row r="11" spans="4:9">
       <c r="E11" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F11" s="22" t="str">
         <f>IAM_ROLE!E14</f>
@@ -7322,9 +6585,9 @@
         <v>project.gitlab.owner</v>
       </c>
     </row>
-    <row r="12" ht="15.75" spans="5:7">
+    <row r="12" spans="4:9">
       <c r="E12" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F12" s="22" t="str">
         <f>IAM_ROLE!E13</f>
@@ -7335,49 +6598,48 @@
         <v>project.gitlab.developer</v>
       </c>
     </row>
-    <row r="13" ht="15.75" spans="5:7">
+    <row r="13" spans="4:9">
       <c r="E13" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F13" s="22" t="str">
         <f>IAM_ROLE!E8</f>
         <v>role/site/default/administrator</v>
       </c>
       <c r="G13" s="8" t="str">
-        <f>IAM_LABEL!E14</f>
+        <f>IAM_LABEL!E13</f>
         <v>site.admin</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="D7:H16"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="3" width="12.6962962962963" customWidth="1"/>
-    <col min="4" max="4" width="34.2" customWidth="1"/>
-    <col min="5" max="5" width="43.5037037037037" customWidth="1"/>
-    <col min="6" max="6" width="42.2" customWidth="1"/>
+    <col min="1" max="3" width="12.69921875" customWidth="1"/>
+    <col min="4" max="4" width="34.19921875" customWidth="1"/>
+    <col min="5" max="5" width="43.5" customWidth="1"/>
+    <col min="6" max="6" width="42.19921875" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="8" max="8" width="54.5037037037037" customWidth="1"/>
-    <col min="9" max="1025" width="12.6962962962963" customWidth="1"/>
+    <col min="8" max="8" width="54.5" customWidth="1"/>
+    <col min="9" max="1025" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="15.75" spans="4:8">
+    <row r="7" spans="4:8">
       <c r="D7" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>48</v>
@@ -7392,162 +6654,161 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="5:8">
+    <row r="8" spans="4:8">
       <c r="E8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G8" t="s">
+        <v>149</v>
+      </c>
+      <c r="H8" t="s">
         <v>150</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="G8" t="s">
+    </row>
+    <row r="9" spans="4:8">
+      <c r="E9" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H8" t="s">
+      <c r="F9" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G9" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="9" ht="15.75" spans="5:8">
-      <c r="E9" s="7" t="s">
+      <c r="H9" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G9" t="s">
+    </row>
+    <row r="10" spans="4:8">
+      <c r="E10" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="F10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="10" ht="15.75" spans="5:8">
-      <c r="E10" s="7" t="s">
+      <c r="H10" t="s">
         <v>156</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G10" t="s">
+    </row>
+    <row r="11" spans="4:8">
+      <c r="E11" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="H10" t="s">
+      <c r="F11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="11" ht="15.75" spans="5:8">
-      <c r="E11" s="7" t="s">
+      <c r="H11" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G11" t="s">
+    </row>
+    <row r="12" spans="4:8">
+      <c r="E12" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="F12" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G12" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="12" ht="15.75" spans="5:8">
-      <c r="E12" s="7" t="s">
+      <c r="H12" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G12" t="s">
+    </row>
+    <row r="13" spans="4:8">
+      <c r="E13" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="F13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G13" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="13" ht="15.75" spans="5:8">
-      <c r="E13" s="7" t="s">
+      <c r="H13" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G13" t="s">
+    </row>
+    <row r="14" spans="4:8">
+      <c r="E14" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="F14" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="14" ht="15.75" spans="5:8">
-      <c r="E14" s="7" t="s">
+      <c r="H14" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G14" t="s">
+    </row>
+    <row r="15" spans="4:8">
+      <c r="E15" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="F15" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G15" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="15" ht="15.75" spans="5:8">
-      <c r="E15" s="7" t="s">
+      <c r="H15" s="19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8">
+      <c r="E16" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F16" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G16" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="H15" s="19" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" spans="5:8">
-      <c r="E16" s="8" t="s">
+      <c r="H16" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>175</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="3.2962962962963" customWidth="1"/>
-    <col min="3" max="3" width="11.2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="3.296875" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="6" width="10.5037037037037" customWidth="1"/>
-    <col min="7" max="7" width="17.5037037037037" customWidth="1"/>
-    <col min="8" max="12" width="10.5037037037037" customWidth="1"/>
-    <col min="13" max="13" width="26.8" customWidth="1"/>
-    <col min="14" max="1025" width="10.5037037037037" customWidth="1"/>
+    <col min="5" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="12" width="10.5" customWidth="1"/>
+    <col min="13" max="13" width="26.796875" customWidth="1"/>
+    <col min="14" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:4">
+    <row r="1" spans="1:14">
       <c r="A1" s="15" t="s">
         <v>44</v>
       </c>
@@ -7561,9 +6822,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="4:14">
+    <row r="7" spans="1:14">
       <c r="D7" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>48</v>
@@ -7572,49 +6833,49 @@
         <v>55</v>
       </c>
       <c r="G7" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="I7" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="J7" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="K7" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="L7" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="N7" s="17"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="E8" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="L7" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="M7" s="14" t="s">
+      <c r="F8" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="N7" s="17"/>
-    </row>
-    <row r="8" ht="15.75" spans="5:14">
-      <c r="E8" s="14" t="s">
+      <c r="H8" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="G8" s="14" t="s">
+      <c r="I8" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="J8" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>186</v>
-      </c>
       <c r="K8" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L8" t="str">
         <f>FD_ORGANIZATION!E8</f>
@@ -7622,39 +6883,40 @@
       </c>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" ht="15.75" spans="5:13">
+    <row r="9" spans="1:14">
       <c r="E9" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="K9" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L9" t="str">
         <f>FD_ORGANIZATION!E8</f>
         <v>运营组织</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"Page &amp;P</oddFooter>

--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\base-service\src\main\resources\script\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D21D077-564E-476E-88B5-FCDC894104EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81112DE2-E5D2-4A99-887F-159FB2F6ADBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,11 @@
     <sheet name="OAUTH_CLIENT" sheetId="9" r:id="rId9"/>
     <sheet name="IAM_MEMBER_ROLE" sheetId="10" r:id="rId10"/>
     <sheet name="FD_LANGUAGE" sheetId="11" r:id="rId11"/>
-    <sheet name="FD_LOOKUP" sheetId="12" r:id="rId12"/>
-    <sheet name="FD_LOOKUP_VALUE" sheetId="13" r:id="rId13"/>
-    <sheet name="OAUTH_LDAP" sheetId="14" r:id="rId14"/>
-    <sheet name="OAUTH_PASSWORD_POLICY" sheetId="15" r:id="rId15"/>
-    <sheet name="FD_ORGANIZATION_CATEGORY" sheetId="17" r:id="rId16"/>
-    <sheet name="FD_PROJECT_CATEGORY" sheetId="18" r:id="rId17"/>
-    <sheet name="IAM_WORK_CALENDAR_HOLIDAY_REF" sheetId="19" r:id="rId18"/>
+    <sheet name="OAUTH_LDAP" sheetId="14" r:id="rId12"/>
+    <sheet name="OAUTH_PASSWORD_POLICY" sheetId="15" r:id="rId13"/>
+    <sheet name="FD_ORGANIZATION_CATEGORY" sheetId="17" r:id="rId14"/>
+    <sheet name="FD_PROJECT_CATEGORY" sheetId="18" r:id="rId15"/>
+    <sheet name="IAM_WORK_CALENDAR_HOLIDAY_REF" sheetId="19" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
@@ -49,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="313">
   <si>
     <r>
       <rPr>
@@ -2686,86 +2684,6 @@
   </si>
   <si>
     <t>English(US)</t>
-  </si>
-  <si>
-    <t>FD_LOOKUP</t>
-  </si>
-  <si>
-    <t>时区</t>
-  </si>
-  <si>
-    <t>Time Zone</t>
-  </si>
-  <si>
-    <t>FD_LOOKUP_VALUE</t>
-  </si>
-  <si>
-    <t>LOOKUP_ID</t>
-  </si>
-  <si>
-    <t>EST</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>美国</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>纽约</t>
-    </r>
-  </si>
-  <si>
-    <t>America/New_York</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中国</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上海</t>
-    </r>
-  </si>
-  <si>
-    <t>Asia/Shanghai</t>
   </si>
   <si>
     <t>OAUTH_LDAP</t>
@@ -3539,11 +3457,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3915,11 +3833,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.05" customHeight="1">
       <c r="A1" s="30"/>
-      <c r="C1" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
+      <c r="C1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
       <c r="H1" s="31"/>
@@ -3928,10 +3846,10 @@
       <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:8" ht="49.05" customHeight="1">
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="53"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="54" t="s">
         <v>2</v>
       </c>
@@ -4095,19 +4013,19 @@
       <c r="C25" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="53" t="s">
+      <c r="D25" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="53"/>
+      <c r="E25" s="52"/>
     </row>
     <row r="26" spans="3:5" ht="15.75" customHeight="1">
       <c r="C26" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="53" t="s">
+      <c r="D26" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="53"/>
+      <c r="E26" s="52"/>
     </row>
     <row r="27" spans="3:5" ht="31.8">
       <c r="C27" s="51" t="s">
@@ -4341,159 +4259,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="D7:I8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
-  <cols>
-    <col min="1" max="3" width="10.19921875" customWidth="1"/>
-    <col min="4" max="4" width="11.796875" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" customWidth="1"/>
-    <col min="6" max="6" width="13.69921875" customWidth="1"/>
-    <col min="7" max="7" width="23.796875" customWidth="1"/>
-    <col min="8" max="8" width="20.69921875" customWidth="1"/>
-    <col min="9" max="9" width="20.5" customWidth="1"/>
-    <col min="10" max="1025" width="10.19921875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="7" spans="4:9" ht="16.2">
-      <c r="D7" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="4:9" ht="16.2">
-      <c r="D8" s="10"/>
-      <c r="E8" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="I8" s="10"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="D7:J9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
-  <cols>
-    <col min="1" max="3" width="10.19921875" customWidth="1"/>
-    <col min="4" max="4" width="18.69921875" customWidth="1"/>
-    <col min="5" max="6" width="10.19921875" customWidth="1"/>
-    <col min="7" max="7" width="33" customWidth="1"/>
-    <col min="8" max="8" width="23.796875" customWidth="1"/>
-    <col min="9" max="9" width="21.69921875" customWidth="1"/>
-    <col min="10" max="1025" width="10.19921875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="7" spans="4:10" ht="16.2">
-      <c r="D7" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="4:10" ht="16.2">
-      <c r="D8" s="10"/>
-      <c r="E8" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="G8" s="10" t="str">
-        <f>FD_LOOKUP!E8</f>
-        <v>TIME_ZONE</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="4:10" ht="16.2">
-      <c r="D9" s="10"/>
-      <c r="E9" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" s="10" t="str">
-        <f>FD_LOOKUP!E8</f>
-        <v>TIME_ZONE</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="J9" s="10"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="D7:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -4512,7 +4282,7 @@
   <sheetData>
     <row r="7" spans="4:12">
       <c r="D7" s="7" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>48</v>
@@ -4521,48 +4291,48 @@
         <v>49</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="4:12">
       <c r="E8" s="7" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -4572,7 +4342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="D7:N8"/>
   <sheetViews>
@@ -4598,7 +4368,7 @@
   <sheetData>
     <row r="7" spans="4:14">
       <c r="D7" s="7" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>48</v>
@@ -4610,36 +4380,36 @@
         <v>49</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="4:14">
       <c r="E8" s="7" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -4670,7 +4440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="D7:I8"/>
   <sheetViews>
@@ -4685,7 +4455,7 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" s="4" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>48</v>
@@ -4700,22 +4470,22 @@
         <v>49</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="4:9">
       <c r="D8" s="6"/>
       <c r="E8" s="4" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="I8" s="4">
         <v>1</v>
@@ -4728,7 +4498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="D7:J8"/>
   <sheetViews>
@@ -4751,7 +4521,7 @@
   <sheetData>
     <row r="7" spans="4:10">
       <c r="D7" s="4" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>48</v>
@@ -4766,24 +4536,24 @@
         <v>49</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="4:10">
       <c r="E8" s="5" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="G8" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="H8" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="I8" s="4">
         <v>1</v>
@@ -4799,7 +4569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="D7:H77"/>
   <sheetViews>
@@ -4815,25 +4585,25 @@
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="4:8">
       <c r="E8" s="2"/>
       <c r="F8" s="1" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -4845,7 +4615,7 @@
     <row r="9" spans="4:8">
       <c r="E9" s="2"/>
       <c r="F9" s="1" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -4856,10 +4626,10 @@
     </row>
     <row r="10" spans="4:8">
       <c r="E10" s="1" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -4871,7 +4641,7 @@
     <row r="11" spans="4:8">
       <c r="E11" s="2"/>
       <c r="F11" s="1" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="G11" s="3">
         <v>1</v>
@@ -4882,10 +4652,10 @@
     </row>
     <row r="12" spans="4:8">
       <c r="E12" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -4896,10 +4666,10 @@
     </row>
     <row r="13" spans="4:8">
       <c r="E13" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>
@@ -4911,7 +4681,7 @@
     <row r="14" spans="4:8">
       <c r="E14" s="2"/>
       <c r="F14" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -4923,7 +4693,7 @@
     <row r="15" spans="4:8">
       <c r="E15" s="2"/>
       <c r="F15" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -4935,7 +4705,7 @@
     <row r="16" spans="4:8">
       <c r="E16" s="2"/>
       <c r="F16" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G16" s="3">
         <v>0</v>
@@ -4947,7 +4717,7 @@
     <row r="17" spans="5:8">
       <c r="E17" s="2"/>
       <c r="F17" s="1" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
@@ -4959,7 +4729,7 @@
     <row r="18" spans="5:8">
       <c r="E18" s="2"/>
       <c r="F18" s="1" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -4971,7 +4741,7 @@
     <row r="19" spans="5:8">
       <c r="E19" s="2"/>
       <c r="F19" s="1" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="G19" s="3">
         <v>1</v>
@@ -4982,10 +4752,10 @@
     </row>
     <row r="20" spans="5:8">
       <c r="E20" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -4997,7 +4767,7 @@
     <row r="21" spans="5:8">
       <c r="E21" s="2"/>
       <c r="F21" s="1" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
@@ -5009,7 +4779,7 @@
     <row r="22" spans="5:8">
       <c r="E22" s="2"/>
       <c r="F22" s="1" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -5021,7 +4791,7 @@
     <row r="23" spans="5:8">
       <c r="E23" s="2"/>
       <c r="F23" s="1" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="G23" s="3">
         <v>1</v>
@@ -5033,7 +4803,7 @@
     <row r="24" spans="5:8">
       <c r="E24" s="2"/>
       <c r="F24" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="G24" s="3">
         <v>1</v>
@@ -5045,7 +4815,7 @@
     <row r="25" spans="5:8">
       <c r="E25" s="2"/>
       <c r="F25" s="1" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="G25" s="3">
         <v>0</v>
@@ -5057,7 +4827,7 @@
     <row r="26" spans="5:8">
       <c r="E26" s="2"/>
       <c r="F26" s="1" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -5068,10 +4838,10 @@
     </row>
     <row r="27" spans="5:8">
       <c r="E27" s="1" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
@@ -5083,7 +4853,7 @@
     <row r="28" spans="5:8">
       <c r="E28" s="2"/>
       <c r="F28" s="1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="G28" s="3">
         <v>0</v>
@@ -5095,7 +4865,7 @@
     <row r="29" spans="5:8">
       <c r="E29" s="2"/>
       <c r="F29" s="1" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -5106,10 +4876,10 @@
     </row>
     <row r="30" spans="5:8">
       <c r="E30" s="1" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="G30" s="3">
         <v>0</v>
@@ -5121,7 +4891,7 @@
     <row r="31" spans="5:8">
       <c r="E31" s="2"/>
       <c r="F31" s="1" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="G31" s="3">
         <v>0</v>
@@ -5133,7 +4903,7 @@
     <row r="32" spans="5:8">
       <c r="E32" s="2"/>
       <c r="F32" s="1" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -5144,10 +4914,10 @@
     </row>
     <row r="33" spans="5:8">
       <c r="E33" s="1" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
@@ -5159,7 +4929,7 @@
     <row r="34" spans="5:8">
       <c r="E34" s="2"/>
       <c r="F34" s="1" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="G34" s="3">
         <v>1</v>
@@ -5171,7 +4941,7 @@
     <row r="35" spans="5:8">
       <c r="E35" s="2"/>
       <c r="F35" s="1" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="G35" s="3">
         <v>1</v>
@@ -5182,10 +4952,10 @@
     </row>
     <row r="36" spans="5:8">
       <c r="E36" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="G36" s="3">
         <v>0</v>
@@ -5197,7 +4967,7 @@
     <row r="37" spans="5:8">
       <c r="E37" s="2"/>
       <c r="F37" s="1" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="G37" s="3">
         <v>0</v>
@@ -5209,7 +4979,7 @@
     <row r="38" spans="5:8">
       <c r="E38" s="2"/>
       <c r="F38" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="G38" s="3">
         <v>0</v>
@@ -5221,7 +4991,7 @@
     <row r="39" spans="5:8">
       <c r="E39" s="2"/>
       <c r="F39" s="1" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="G39" s="3">
         <v>0</v>
@@ -5233,7 +5003,7 @@
     <row r="40" spans="5:8">
       <c r="E40" s="2"/>
       <c r="F40" s="1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="G40" s="3">
         <v>0</v>
@@ -5245,7 +5015,7 @@
     <row r="41" spans="5:8">
       <c r="E41" s="2"/>
       <c r="F41" s="1" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -5257,7 +5027,7 @@
     <row r="42" spans="5:8">
       <c r="E42" s="2"/>
       <c r="F42" s="1" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -5268,10 +5038,10 @@
     </row>
     <row r="43" spans="5:8">
       <c r="E43" s="2" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -5283,7 +5053,7 @@
     <row r="44" spans="5:8">
       <c r="E44" s="2"/>
       <c r="F44" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="G44" s="3">
         <v>1</v>
@@ -5295,7 +5065,7 @@
     <row r="45" spans="5:8">
       <c r="E45" s="2"/>
       <c r="F45" s="1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="G45" s="3">
         <v>1</v>
@@ -5306,10 +5076,10 @@
     </row>
     <row r="46" spans="5:8">
       <c r="E46" s="2" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
@@ -5320,10 +5090,10 @@
     </row>
     <row r="47" spans="5:8">
       <c r="E47" s="2" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -5335,7 +5105,7 @@
     <row r="48" spans="5:8">
       <c r="E48" s="2"/>
       <c r="F48" s="1" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -5347,7 +5117,7 @@
     <row r="49" spans="5:8">
       <c r="E49" s="2"/>
       <c r="F49" s="1" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -5359,7 +5129,7 @@
     <row r="50" spans="5:8">
       <c r="E50" s="2"/>
       <c r="F50" s="1" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="G50" s="3">
         <v>0</v>
@@ -5371,7 +5141,7 @@
     <row r="51" spans="5:8">
       <c r="E51" s="2"/>
       <c r="F51" s="1" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="G51" s="3">
         <v>0</v>
@@ -5383,7 +5153,7 @@
     <row r="52" spans="5:8">
       <c r="E52" s="2"/>
       <c r="F52" s="1" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -5394,10 +5164,10 @@
     </row>
     <row r="53" spans="5:8">
       <c r="E53" s="2" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="G53" s="3">
         <v>0</v>
@@ -5409,7 +5179,7 @@
     <row r="54" spans="5:8">
       <c r="E54" s="2"/>
       <c r="F54" s="1" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="G54" s="3">
         <v>0</v>
@@ -5421,7 +5191,7 @@
     <row r="55" spans="5:8">
       <c r="E55" s="2"/>
       <c r="F55" s="1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="G55" s="3">
         <v>0</v>
@@ -5433,7 +5203,7 @@
     <row r="56" spans="5:8">
       <c r="E56" s="2"/>
       <c r="F56" s="1" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="G56" s="3">
         <v>1</v>
@@ -5444,10 +5214,10 @@
     </row>
     <row r="57" spans="5:8">
       <c r="E57" s="2" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -5459,7 +5229,7 @@
     <row r="58" spans="5:8">
       <c r="E58" s="2"/>
       <c r="F58" s="1" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -5471,7 +5241,7 @@
     <row r="59" spans="5:8">
       <c r="E59" s="2"/>
       <c r="F59" s="1" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -5483,7 +5253,7 @@
     <row r="60" spans="5:8">
       <c r="E60" s="2"/>
       <c r="F60" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="G60" s="3">
         <v>0</v>
@@ -5495,7 +5265,7 @@
     <row r="61" spans="5:8">
       <c r="E61" s="2"/>
       <c r="F61" s="1" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="G61" s="3">
         <v>1</v>
@@ -5506,10 +5276,10 @@
     </row>
     <row r="62" spans="5:8">
       <c r="E62" s="2" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -5521,7 +5291,7 @@
     <row r="63" spans="5:8">
       <c r="E63" s="2"/>
       <c r="F63" s="1" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="G63" s="3">
         <v>0</v>
@@ -5533,7 +5303,7 @@
     <row r="64" spans="5:8">
       <c r="E64" s="2"/>
       <c r="F64" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="G64" s="3">
         <v>0</v>
@@ -5544,10 +5314,10 @@
     </row>
     <row r="65" spans="5:8">
       <c r="E65" s="2" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="G65" s="3">
         <v>0</v>
@@ -5559,7 +5329,7 @@
     <row r="66" spans="5:8">
       <c r="E66" s="2"/>
       <c r="F66" s="1" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="G66" s="3">
         <v>0</v>
@@ -5571,7 +5341,7 @@
     <row r="67" spans="5:8">
       <c r="E67" s="2"/>
       <c r="F67" s="1" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="G67" s="3">
         <v>0</v>
@@ -5583,7 +5353,7 @@
     <row r="68" spans="5:8">
       <c r="E68" s="2"/>
       <c r="F68" s="1" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="G68" s="3">
         <v>1</v>
@@ -5595,7 +5365,7 @@
     <row r="69" spans="5:8">
       <c r="E69" s="2"/>
       <c r="F69" s="1" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="G69" s="3">
         <v>1</v>
@@ -5606,10 +5376,10 @@
     </row>
     <row r="70" spans="5:8">
       <c r="E70" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -5621,7 +5391,7 @@
     <row r="71" spans="5:8">
       <c r="E71" s="2"/>
       <c r="F71" s="1" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="G71" s="3">
         <v>0</v>
@@ -5633,7 +5403,7 @@
     <row r="72" spans="5:8">
       <c r="E72" s="2"/>
       <c r="F72" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="G72" s="3">
         <v>0</v>
@@ -5645,7 +5415,7 @@
     <row r="73" spans="5:8">
       <c r="E73" s="2"/>
       <c r="F73" s="1" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="G73" s="3">
         <v>0</v>
@@ -5657,7 +5427,7 @@
     <row r="74" spans="5:8">
       <c r="E74" s="2"/>
       <c r="F74" s="1" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="G74" s="3">
         <v>0</v>
@@ -5669,7 +5439,7 @@
     <row r="75" spans="5:8">
       <c r="E75" s="2"/>
       <c r="F75" s="1" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G75" s="3">
         <v>0</v>
@@ -5681,7 +5451,7 @@
     <row r="76" spans="5:8">
       <c r="E76" s="2"/>
       <c r="F76" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="G76" s="3">
         <v>0</v>
@@ -5693,7 +5463,7 @@
     <row r="77" spans="5:8">
       <c r="E77" s="2"/>
       <c r="F77" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G77" s="3">
         <v>1</v>
@@ -5786,7 +5556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\base-service\src\main\resources\script\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\base-service\src\main\resources\script\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81112DE2-E5D2-4A99-887F-159FB2F6ADBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="500" firstSheet="11" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -34,7 +33,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="318">
   <si>
     <r>
       <rPr>
@@ -2764,9 +2763,6 @@
     <t>GENERAL</t>
   </si>
   <si>
-    <t>普通应用项目</t>
-  </si>
-  <si>
     <t>iam_work_calendar_holiday_ref</t>
   </si>
   <si>
@@ -3014,12 +3010,34 @@
   </si>
   <si>
     <t>2019-10-12</t>
+  </si>
+  <si>
+    <t>DevOps全流程项目</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>DevOps全流程项目</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>运维项目</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPERATIONS</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGILE</t>
+  </si>
+  <si>
+    <t>敏捷项目</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="21">
     <font>
       <sz val="12"/>
@@ -3312,7 +3330,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3472,6 +3490,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3567,7 +3594,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3816,22 +3843,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="10.5" style="29" customWidth="1"/>
-    <col min="3" max="3" width="116.69921875" customWidth="1"/>
+    <col min="3" max="3" width="116.75" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="17" customWidth="1"/>
     <col min="5" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.05" customHeight="1">
+    <row r="1" spans="1:8" ht="64.150000000000006" customHeight="1">
       <c r="A1" s="30"/>
       <c r="C1" s="53" t="s">
         <v>0</v>
@@ -3845,7 +3872,7 @@
     <row r="2" spans="1:8">
       <c r="E2" s="32"/>
     </row>
-    <row r="3" spans="1:8" ht="49.05" customHeight="1">
+    <row r="3" spans="1:8" ht="49.15" customHeight="1">
       <c r="C3" s="52" t="s">
         <v>1</v>
       </c>
@@ -3856,7 +3883,7 @@
       <c r="F3" s="54"/>
       <c r="G3" s="54"/>
     </row>
-    <row r="4" spans="1:8" ht="31.8">
+    <row r="4" spans="1:8" ht="30">
       <c r="C4" s="55" t="s">
         <v>3</v>
       </c>
@@ -3871,7 +3898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="15.75">
       <c r="A5" s="30"/>
       <c r="C5" s="17" t="s">
         <v>7</v>
@@ -3888,7 +3915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="15.75">
       <c r="C8" s="39" t="s">
         <v>11</v>
       </c>
@@ -3897,7 +3924,7 @@
       </c>
       <c r="E8" s="41"/>
     </row>
-    <row r="9" spans="1:8" ht="157.80000000000001">
+    <row r="9" spans="1:8" ht="147">
       <c r="C9" s="42" t="s">
         <v>13</v>
       </c>
@@ -3911,7 +3938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="189.6">
+    <row r="10" spans="1:8" ht="177">
       <c r="C10" s="45" t="s">
         <v>17</v>
       </c>
@@ -3933,7 +3960,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="47.4">
+    <row r="12" spans="1:8" ht="44.25">
       <c r="C12" s="39" t="s">
         <v>23</v>
       </c>
@@ -3944,17 +3971,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" ht="15.75">
       <c r="C13" s="39"/>
       <c r="D13" s="40"/>
       <c r="E13" s="41"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" ht="15.75">
       <c r="C14" s="39"/>
       <c r="D14" s="40"/>
       <c r="E14" s="41"/>
     </row>
-    <row r="15" spans="1:8" ht="126.6">
+    <row r="15" spans="1:8" ht="118.5">
       <c r="C15" s="47" t="s">
         <v>26</v>
       </c>
@@ -3970,14 +3997,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="3:5">
+    <row r="19" spans="3:5" ht="15.75">
       <c r="C19" s="56" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="56"/>
       <c r="E19" s="56"/>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="3:5" ht="15.75">
       <c r="C20" s="27" t="s">
         <v>31</v>
       </c>
@@ -3985,7 +4012,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:5" ht="15.75">
       <c r="C21" s="27" t="s">
         <v>33</v>
       </c>
@@ -3993,7 +4020,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" ht="15.75">
       <c r="C22" s="27" t="s">
         <v>35</v>
       </c>
@@ -4001,7 +4028,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" ht="15.75">
       <c r="C23" s="27" t="s">
         <v>37</v>
       </c>
@@ -4027,7 +4054,7 @@
       </c>
       <c r="E26" s="52"/>
     </row>
-    <row r="27" spans="3:5" ht="31.8">
+    <row r="27" spans="3:5" ht="30">
       <c r="C27" s="51" t="s">
         <v>43</v>
       </c>
@@ -4049,27 +4076,27 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:J10"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="20.19921875" customWidth="1"/>
+    <col min="3" max="3" width="20.25" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="42" customWidth="1"/>
-    <col min="6" max="6" width="37.69921875" customWidth="1"/>
+    <col min="6" max="6" width="37.75" customWidth="1"/>
     <col min="7" max="7" width="24.5" customWidth="1"/>
-    <col min="8" max="8" width="16.296875" customWidth="1"/>
-    <col min="9" max="9" width="17.19921875" customWidth="1"/>
+    <col min="8" max="8" width="16.25" customWidth="1"/>
+    <col min="9" max="9" width="17.25" customWidth="1"/>
     <col min="10" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:10">
+    <row r="7" spans="4:10" ht="15.75">
       <c r="D7" s="7" t="s">
         <v>187</v>
       </c>
@@ -4092,7 +4119,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="4:10">
+    <row r="8" spans="4:10" ht="15.75">
       <c r="E8" s="5" t="s">
         <v>97</v>
       </c>
@@ -4114,7 +4141,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="4:10">
+    <row r="9" spans="4:10" ht="15.75">
       <c r="E9" s="5" t="s">
         <v>107</v>
       </c>
@@ -4136,7 +4163,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="4:10">
+    <row r="10" spans="4:10" ht="15.75">
       <c r="E10" s="5" t="s">
         <v>100</v>
       </c>
@@ -4170,23 +4197,23 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="9.796875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="20.19921875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="26.296875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="21.69921875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="23.296875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="25.796875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="24.296875" style="10" customWidth="1"/>
-    <col min="10" max="1025" width="9.796875" style="10" customWidth="1"/>
+    <col min="1" max="3" width="9.75" style="10" customWidth="1"/>
+    <col min="4" max="4" width="20.25" style="10" customWidth="1"/>
+    <col min="5" max="5" width="26.25" style="10" customWidth="1"/>
+    <col min="6" max="6" width="21.75" style="10" customWidth="1"/>
+    <col min="7" max="7" width="23.25" style="10" customWidth="1"/>
+    <col min="8" max="8" width="25.75" style="10" customWidth="1"/>
+    <col min="9" max="9" width="24.25" style="10" customWidth="1"/>
+    <col min="10" max="1025" width="9.75" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -4195,7 +4222,7 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="7" spans="1:10" ht="16.2">
+    <row r="7" spans="1:10" ht="15.75">
       <c r="D7" s="9" t="s">
         <v>193</v>
       </c>
@@ -4216,7 +4243,7 @@
       </c>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="1:10" ht="16.2">
+    <row r="8" spans="1:10" ht="15.75">
       <c r="E8" s="9" t="s">
         <v>87</v>
       </c>
@@ -4234,7 +4261,7 @@
       </c>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="1:10" ht="16.2">
+    <row r="9" spans="1:10" ht="15.75">
       <c r="E9" s="9" t="s">
         <v>199</v>
       </c>
@@ -4259,28 +4286,28 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="10.19921875" customWidth="1"/>
+    <col min="1" max="3" width="10.25" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="13.19921875" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
     <col min="8" max="8" width="20.5" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="20.5" customWidth="1"/>
-    <col min="11" max="11" width="12.69921875" customWidth="1"/>
-    <col min="12" max="1025" width="10.19921875" customWidth="1"/>
+    <col min="11" max="11" width="12.75" customWidth="1"/>
+    <col min="12" max="1025" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:12">
+    <row r="7" spans="4:12" ht="15.75">
       <c r="D7" s="7" t="s">
         <v>203</v>
       </c>
@@ -4309,7 +4336,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="4:12">
+    <row r="8" spans="4:12" ht="15.75">
       <c r="E8" s="7" t="s">
         <v>210</v>
       </c>
@@ -4343,30 +4370,30 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:N8"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="10.19921875" customWidth="1"/>
-    <col min="4" max="4" width="26.296875" customWidth="1"/>
+    <col min="1" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="26.25" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="7" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="19.296875" customWidth="1"/>
+    <col min="8" max="8" width="19.25" customWidth="1"/>
     <col min="9" max="9" width="17.5" customWidth="1"/>
     <col min="10" max="10" width="13.5" customWidth="1"/>
     <col min="11" max="11" width="17.5" customWidth="1"/>
-    <col min="12" max="12" width="22.19921875" customWidth="1"/>
-    <col min="13" max="13" width="17.296875" customWidth="1"/>
-    <col min="14" max="14" width="21.69921875" customWidth="1"/>
-    <col min="15" max="1025" width="10.19921875" customWidth="1"/>
+    <col min="12" max="12" width="22.25" customWidth="1"/>
+    <col min="13" max="13" width="17.25" customWidth="1"/>
+    <col min="14" max="14" width="21.75" customWidth="1"/>
+    <col min="15" max="1025" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:14">
+    <row r="7" spans="4:14" ht="15.75">
       <c r="D7" s="7" t="s">
         <v>215</v>
       </c>
@@ -4401,7 +4428,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="4:14">
+    <row r="8" spans="4:14" ht="15.75">
       <c r="E8" s="7" t="s">
         <v>210</v>
       </c>
@@ -4441,19 +4468,19 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1025" width="10.59765625" customWidth="1"/>
+    <col min="1" max="1025" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9">
+    <row r="7" spans="4:9" ht="15.75">
       <c r="D7" s="4" t="s">
         <v>222</v>
       </c>
@@ -4473,7 +4500,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="4:9">
+    <row r="8" spans="4:9" ht="15.75">
       <c r="D8" s="6"/>
       <c r="E8" s="4" t="s">
         <v>224</v>
@@ -4499,27 +4526,27 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="D7:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="10.59765625" customWidth="1"/>
-    <col min="4" max="4" width="23.19921875" customWidth="1"/>
-    <col min="5" max="5" width="19.59765625" customWidth="1"/>
+    <col min="1" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="23.25" customWidth="1"/>
+    <col min="5" max="5" width="19.625" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="16.296875" customWidth="1"/>
-    <col min="9" max="9" width="15.59765625" customWidth="1"/>
-    <col min="10" max="10" width="14.5" customWidth="1"/>
-    <col min="11" max="1025" width="10.59765625" customWidth="1"/>
+    <col min="8" max="8" width="16.25" customWidth="1"/>
+    <col min="9" max="9" width="15.625" style="59" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="59" customWidth="1"/>
+    <col min="11" max="1025" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:10">
+    <row r="7" spans="4:10" ht="15.75">
       <c r="D7" s="4" t="s">
         <v>226</v>
       </c>
@@ -4535,30 +4562,70 @@
       <c r="H7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="58" t="s">
         <v>223</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="58" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="4:10">
+    <row r="8" spans="4:10" ht="15.75">
       <c r="E8" s="5" t="s">
         <v>228</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="G8" t="s">
-        <v>229</v>
-      </c>
-      <c r="H8" t="s">
-        <v>229</v>
-      </c>
-      <c r="I8" s="4">
+      <c r="G8" s="57" t="s">
+        <v>312</v>
+      </c>
+      <c r="H8" s="57" t="s">
+        <v>313</v>
+      </c>
+      <c r="I8" s="58">
         <v>1</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10">
+      <c r="E9" s="57" t="s">
+        <v>315</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>315</v>
+      </c>
+      <c r="G9" s="57" t="s">
+        <v>314</v>
+      </c>
+      <c r="H9" s="57" t="s">
+        <v>314</v>
+      </c>
+      <c r="I9" s="59">
+        <v>1</v>
+      </c>
+      <c r="J9" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10">
+      <c r="E10" t="s">
+        <v>316</v>
+      </c>
+      <c r="F10" t="s">
+        <v>316</v>
+      </c>
+      <c r="G10" t="s">
+        <v>317</v>
+      </c>
+      <c r="H10" t="s">
+        <v>317</v>
+      </c>
+      <c r="I10" s="59">
+        <v>1</v>
+      </c>
+      <c r="J10" s="59">
         <v>1</v>
       </c>
     </row>
@@ -4570,40 +4637,40 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:H77"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="4" max="4" width="25.8984375" customWidth="1"/>
-    <col min="6" max="6" width="11.796875" customWidth="1"/>
+    <col min="4" max="4" width="25.875" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8">
+    <row r="7" spans="4:8" ht="15.75">
       <c r="D7" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8">
+    </row>
+    <row r="8" spans="4:8" ht="15.75">
       <c r="E8" s="2"/>
       <c r="F8" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -4612,10 +4679,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="9" spans="4:8">
+    <row r="9" spans="4:8" ht="15.75">
       <c r="E9" s="2"/>
       <c r="F9" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -4624,12 +4691,12 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="10" spans="4:8">
+    <row r="10" spans="4:8" ht="15.75">
       <c r="E10" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -4638,10 +4705,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="4:8">
+    <row r="11" spans="4:8" ht="15.75">
       <c r="E11" s="2"/>
       <c r="F11" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G11" s="3">
         <v>1</v>
@@ -4650,12 +4717,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="4:8">
+    <row r="12" spans="4:8" ht="15.75">
       <c r="E12" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -4664,12 +4731,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="4:8">
+    <row r="13" spans="4:8" ht="15.75">
       <c r="E13" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>
@@ -4678,10 +4745,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="4:8">
+    <row r="14" spans="4:8" ht="15.75">
       <c r="E14" s="2"/>
       <c r="F14" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -4690,10 +4757,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="4:8">
+    <row r="15" spans="4:8" ht="15.75">
       <c r="E15" s="2"/>
       <c r="F15" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -4702,10 +4769,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="16" spans="4:8">
+    <row r="16" spans="4:8" ht="15.75">
       <c r="E16" s="2"/>
       <c r="F16" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G16" s="3">
         <v>0</v>
@@ -4714,10 +4781,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="5:8">
+    <row r="17" spans="5:8" ht="15.75">
       <c r="E17" s="2"/>
       <c r="F17" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
@@ -4726,10 +4793,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="18" spans="5:8">
+    <row r="18" spans="5:8" ht="15.75">
       <c r="E18" s="2"/>
       <c r="F18" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -4738,10 +4805,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="19" spans="5:8">
+    <row r="19" spans="5:8" ht="15.75">
       <c r="E19" s="2"/>
       <c r="F19" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G19" s="3">
         <v>1</v>
@@ -4750,12 +4817,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="5:8">
+    <row r="20" spans="5:8" ht="15.75">
       <c r="E20" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -4764,10 +4831,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="21" spans="5:8">
+    <row r="21" spans="5:8" ht="15.75">
       <c r="E21" s="2"/>
       <c r="F21" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
@@ -4776,10 +4843,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="22" spans="5:8">
+    <row r="22" spans="5:8" ht="15.75">
       <c r="E22" s="2"/>
       <c r="F22" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -4788,10 +4855,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="5:8">
+    <row r="23" spans="5:8" ht="15.75">
       <c r="E23" s="2"/>
       <c r="F23" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G23" s="3">
         <v>1</v>
@@ -4800,10 +4867,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="24" spans="5:8">
+    <row r="24" spans="5:8" ht="15.75">
       <c r="E24" s="2"/>
       <c r="F24" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G24" s="3">
         <v>1</v>
@@ -4812,10 +4879,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="25" spans="5:8">
+    <row r="25" spans="5:8" ht="15.75">
       <c r="E25" s="2"/>
       <c r="F25" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G25" s="3">
         <v>0</v>
@@ -4824,10 +4891,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="26" spans="5:8">
+    <row r="26" spans="5:8" ht="15.75">
       <c r="E26" s="2"/>
       <c r="F26" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -4836,12 +4903,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="27" spans="5:8">
+    <row r="27" spans="5:8" ht="15.75">
       <c r="E27" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
@@ -4850,10 +4917,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="28" spans="5:8">
+    <row r="28" spans="5:8" ht="15.75">
       <c r="E28" s="2"/>
       <c r="F28" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G28" s="3">
         <v>0</v>
@@ -4862,10 +4929,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="29" spans="5:8">
+    <row r="29" spans="5:8" ht="15.75">
       <c r="E29" s="2"/>
       <c r="F29" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -4874,12 +4941,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="30" spans="5:8">
+    <row r="30" spans="5:8" ht="15.75">
       <c r="E30" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="G30" s="3">
         <v>0</v>
@@ -4888,10 +4955,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="31" spans="5:8">
+    <row r="31" spans="5:8" ht="15.75">
       <c r="E31" s="2"/>
       <c r="F31" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G31" s="3">
         <v>0</v>
@@ -4900,10 +4967,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="5:8">
+    <row r="32" spans="5:8" ht="15.75">
       <c r="E32" s="2"/>
       <c r="F32" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -4912,12 +4979,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="33" spans="5:8">
+    <row r="33" spans="5:8" ht="15.75">
       <c r="E33" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
@@ -4926,10 +4993,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="34" spans="5:8">
+    <row r="34" spans="5:8" ht="15.75">
       <c r="E34" s="2"/>
       <c r="F34" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G34" s="3">
         <v>1</v>
@@ -4938,10 +5005,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="35" spans="5:8">
+    <row r="35" spans="5:8" ht="15.75">
       <c r="E35" s="2"/>
       <c r="F35" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G35" s="3">
         <v>1</v>
@@ -4950,12 +5017,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="36" spans="5:8">
+    <row r="36" spans="5:8" ht="15.75">
       <c r="E36" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="G36" s="3">
         <v>0</v>
@@ -4964,10 +5031,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="37" spans="5:8">
+    <row r="37" spans="5:8" ht="15.75">
       <c r="E37" s="2"/>
       <c r="F37" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G37" s="3">
         <v>0</v>
@@ -4976,10 +5043,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="38" spans="5:8">
+    <row r="38" spans="5:8" ht="15.75">
       <c r="E38" s="2"/>
       <c r="F38" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G38" s="3">
         <v>0</v>
@@ -4988,10 +5055,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="39" spans="5:8">
+    <row r="39" spans="5:8" ht="15.75">
       <c r="E39" s="2"/>
       <c r="F39" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G39" s="3">
         <v>0</v>
@@ -5000,10 +5067,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="40" spans="5:8">
+    <row r="40" spans="5:8" ht="15.75">
       <c r="E40" s="2"/>
       <c r="F40" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G40" s="3">
         <v>0</v>
@@ -5012,10 +5079,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="41" spans="5:8">
+    <row r="41" spans="5:8" ht="15.75">
       <c r="E41" s="2"/>
       <c r="F41" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -5024,10 +5091,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="42" spans="5:8">
+    <row r="42" spans="5:8" ht="15.75">
       <c r="E42" s="2"/>
       <c r="F42" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -5036,12 +5103,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="43" spans="5:8">
+    <row r="43" spans="5:8" ht="15.75">
       <c r="E43" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -5050,10 +5117,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="44" spans="5:8">
+    <row r="44" spans="5:8" ht="15.75">
       <c r="E44" s="2"/>
       <c r="F44" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G44" s="3">
         <v>1</v>
@@ -5062,10 +5129,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="45" spans="5:8">
+    <row r="45" spans="5:8" ht="15.75">
       <c r="E45" s="2"/>
       <c r="F45" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G45" s="3">
         <v>1</v>
@@ -5074,12 +5141,12 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="46" spans="5:8">
+    <row r="46" spans="5:8" ht="15.75">
       <c r="E46" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
@@ -5088,12 +5155,12 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="47" spans="5:8">
+    <row r="47" spans="5:8" ht="15.75">
       <c r="E47" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -5102,10 +5169,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="48" spans="5:8">
+    <row r="48" spans="5:8" ht="15.75">
       <c r="E48" s="2"/>
       <c r="F48" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -5114,10 +5181,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="49" spans="5:8">
+    <row r="49" spans="5:8" ht="15.75">
       <c r="E49" s="2"/>
       <c r="F49" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -5126,10 +5193,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="50" spans="5:8">
+    <row r="50" spans="5:8" ht="15.75">
       <c r="E50" s="2"/>
       <c r="F50" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G50" s="3">
         <v>0</v>
@@ -5138,10 +5205,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="51" spans="5:8">
+    <row r="51" spans="5:8" ht="15.75">
       <c r="E51" s="2"/>
       <c r="F51" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G51" s="3">
         <v>0</v>
@@ -5150,10 +5217,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="52" spans="5:8">
+    <row r="52" spans="5:8" ht="15.75">
       <c r="E52" s="2"/>
       <c r="F52" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -5162,12 +5229,12 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="53" spans="5:8">
+    <row r="53" spans="5:8" ht="15.75">
       <c r="E53" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G53" s="3">
         <v>0</v>
@@ -5176,10 +5243,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="54" spans="5:8">
+    <row r="54" spans="5:8" ht="15.75">
       <c r="E54" s="2"/>
       <c r="F54" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G54" s="3">
         <v>0</v>
@@ -5188,10 +5255,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="55" spans="5:8">
+    <row r="55" spans="5:8" ht="15.75">
       <c r="E55" s="2"/>
       <c r="F55" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G55" s="3">
         <v>0</v>
@@ -5200,10 +5267,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="56" spans="5:8">
+    <row r="56" spans="5:8" ht="15.75">
       <c r="E56" s="2"/>
       <c r="F56" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G56" s="3">
         <v>1</v>
@@ -5212,12 +5279,12 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="57" spans="5:8">
+    <row r="57" spans="5:8" ht="15.75">
       <c r="E57" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -5226,10 +5293,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="58" spans="5:8">
+    <row r="58" spans="5:8" ht="15.75">
       <c r="E58" s="2"/>
       <c r="F58" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -5238,10 +5305,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="59" spans="5:8">
+    <row r="59" spans="5:8" ht="15.75">
       <c r="E59" s="2"/>
       <c r="F59" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -5250,10 +5317,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="60" spans="5:8">
+    <row r="60" spans="5:8" ht="15.75">
       <c r="E60" s="2"/>
       <c r="F60" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G60" s="3">
         <v>0</v>
@@ -5262,10 +5329,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="61" spans="5:8">
+    <row r="61" spans="5:8" ht="15.75">
       <c r="E61" s="2"/>
       <c r="F61" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G61" s="3">
         <v>1</v>
@@ -5274,12 +5341,12 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="62" spans="5:8">
+    <row r="62" spans="5:8" ht="15.75">
       <c r="E62" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -5288,10 +5355,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="63" spans="5:8">
+    <row r="63" spans="5:8" ht="15.75">
       <c r="E63" s="2"/>
       <c r="F63" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G63" s="3">
         <v>0</v>
@@ -5300,10 +5367,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="64" spans="5:8">
+    <row r="64" spans="5:8" ht="15.75">
       <c r="E64" s="2"/>
       <c r="F64" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G64" s="3">
         <v>0</v>
@@ -5312,12 +5379,12 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="65" spans="5:8">
+    <row r="65" spans="5:8" ht="15.75">
       <c r="E65" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G65" s="3">
         <v>0</v>
@@ -5326,10 +5393,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="66" spans="5:8">
+    <row r="66" spans="5:8" ht="15.75">
       <c r="E66" s="2"/>
       <c r="F66" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G66" s="3">
         <v>0</v>
@@ -5338,10 +5405,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="67" spans="5:8">
+    <row r="67" spans="5:8" ht="15.75">
       <c r="E67" s="2"/>
       <c r="F67" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G67" s="3">
         <v>0</v>
@@ -5350,10 +5417,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="68" spans="5:8">
+    <row r="68" spans="5:8" ht="15.75">
       <c r="E68" s="2"/>
       <c r="F68" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G68" s="3">
         <v>1</v>
@@ -5362,10 +5429,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="69" spans="5:8">
+    <row r="69" spans="5:8" ht="15.75">
       <c r="E69" s="2"/>
       <c r="F69" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G69" s="3">
         <v>1</v>
@@ -5374,12 +5441,12 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="70" spans="5:8">
+    <row r="70" spans="5:8" ht="15.75">
       <c r="E70" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -5388,10 +5455,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="71" spans="5:8">
+    <row r="71" spans="5:8" ht="15.75">
       <c r="E71" s="2"/>
       <c r="F71" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G71" s="3">
         <v>0</v>
@@ -5400,10 +5467,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="72" spans="5:8">
+    <row r="72" spans="5:8" ht="15.75">
       <c r="E72" s="2"/>
       <c r="F72" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G72" s="3">
         <v>0</v>
@@ -5412,10 +5479,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="73" spans="5:8">
+    <row r="73" spans="5:8" ht="15.75">
       <c r="E73" s="2"/>
       <c r="F73" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G73" s="3">
         <v>0</v>
@@ -5424,10 +5491,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="74" spans="5:8">
+    <row r="74" spans="5:8" ht="15.75">
       <c r="E74" s="2"/>
       <c r="F74" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G74" s="3">
         <v>0</v>
@@ -5436,10 +5503,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="75" spans="5:8">
+    <row r="75" spans="5:8" ht="15.75">
       <c r="E75" s="2"/>
       <c r="F75" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G75" s="3">
         <v>0</v>
@@ -5448,10 +5515,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="76" spans="5:8">
+    <row r="76" spans="5:8" ht="15.75">
       <c r="E76" s="2"/>
       <c r="F76" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G76" s="3">
         <v>0</v>
@@ -5460,10 +5527,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="77" spans="5:8">
+    <row r="77" spans="5:8" ht="15.75">
       <c r="E77" s="2"/>
       <c r="F77" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G77" s="3">
         <v>1</v>
@@ -5480,14 +5547,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="3" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
@@ -5510,7 +5577,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="15.75">
       <c r="D7" s="7" t="s">
         <v>47</v>
       </c>
@@ -5527,7 +5594,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="15.75">
       <c r="E8" s="17" t="s">
         <v>52</v>
       </c>
@@ -5553,24 +5620,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="4" width="10.19921875" customWidth="1"/>
-    <col min="5" max="6" width="28.796875" customWidth="1"/>
-    <col min="7" max="7" width="10.19921875" customWidth="1"/>
+    <col min="1" max="4" width="10.25" customWidth="1"/>
+    <col min="5" max="6" width="28.75" customWidth="1"/>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="22.19921875" customWidth="1"/>
-    <col min="10" max="1025" width="10.19921875" customWidth="1"/>
+    <col min="9" max="9" width="22.25" customWidth="1"/>
+    <col min="10" max="1025" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9">
+    <row r="7" spans="4:9" ht="15.75">
       <c r="D7" s="7" t="s">
         <v>54</v>
       </c>
@@ -5590,7 +5657,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="4:9">
+    <row r="8" spans="4:9" ht="15.75">
       <c r="E8" s="7" t="s">
         <v>59</v>
       </c>
@@ -5607,7 +5674,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="4:9">
+    <row r="9" spans="4:9" ht="15.75">
       <c r="E9" s="7" t="s">
         <v>63</v>
       </c>
@@ -5624,7 +5691,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="4:9">
+    <row r="10" spans="4:9" ht="15.75">
       <c r="E10" s="7" t="s">
         <v>66</v>
       </c>
@@ -5641,7 +5708,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="4:9">
+    <row r="11" spans="4:9" ht="15.75">
       <c r="E11" s="7" t="s">
         <v>68</v>
       </c>
@@ -5658,7 +5725,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="4:9">
+    <row r="12" spans="4:9" ht="15.75">
       <c r="E12" s="7" t="s">
         <v>70</v>
       </c>
@@ -5675,7 +5742,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="4:9">
+    <row r="13" spans="4:9" ht="15.75">
       <c r="E13" s="7" t="s">
         <v>72</v>
       </c>
@@ -5700,26 +5767,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="10.69921875" customWidth="1"/>
-    <col min="5" max="5" width="30.796875" customWidth="1"/>
-    <col min="6" max="6" width="22.796875" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="30.75" customWidth="1"/>
+    <col min="6" max="6" width="22.75" customWidth="1"/>
     <col min="7" max="7" width="90" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
     <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="13.69921875" customWidth="1"/>
-    <col min="11" max="11" width="22.19921875" customWidth="1"/>
+    <col min="10" max="10" width="13.75" customWidth="1"/>
+    <col min="11" max="11" width="22.25" customWidth="1"/>
     <col min="12" max="12" width="10.5" customWidth="1"/>
-    <col min="13" max="13" width="12.296875" customWidth="1"/>
+    <col min="13" max="13" width="12.25" customWidth="1"/>
     <col min="14" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5734,7 +5801,7 @@
       <c r="F3" s="24"/>
       <c r="G3" s="25"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" ht="15.75">
       <c r="A7" s="26"/>
       <c r="D7" s="27" t="s">
         <v>75</v>
@@ -5772,7 +5839,7 @@
       <c r="O7" s="17"/>
       <c r="Q7" s="17"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" ht="15.75">
       <c r="A8" s="26"/>
       <c r="E8" s="14" t="s">
         <v>84</v>
@@ -5809,7 +5876,7 @@
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H8" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="H8" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -5817,21 +5884,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:M14"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="5" width="34.796875" customWidth="1"/>
+    <col min="1" max="5" width="34.75" customWidth="1"/>
     <col min="6" max="6" width="55.5" customWidth="1"/>
-    <col min="7" max="1025" width="34.796875" customWidth="1"/>
+    <col min="7" max="1025" width="34.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:13">
+    <row r="7" spans="4:13" ht="15.75">
       <c r="D7" s="18" t="s">
         <v>90</v>
       </c>
@@ -5863,7 +5930,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="4:13">
+    <row r="8" spans="4:13" ht="15.75">
       <c r="E8" s="7" t="s">
         <v>97</v>
       </c>
@@ -5892,7 +5959,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="4:13">
+    <row r="9" spans="4:13" ht="15.75">
       <c r="E9" s="7" t="s">
         <v>100</v>
       </c>
@@ -5921,7 +5988,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="4:13">
+    <row r="10" spans="4:13" ht="15.75">
       <c r="E10" s="8" t="s">
         <v>103</v>
       </c>
@@ -5950,7 +6017,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="4:13">
+    <row r="11" spans="4:13" ht="15.75">
       <c r="E11" s="7" t="s">
         <v>107</v>
       </c>
@@ -5979,7 +6046,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="4:13">
+    <row r="12" spans="4:13" ht="15.75">
       <c r="E12" s="7" t="s">
         <v>111</v>
       </c>
@@ -6008,7 +6075,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="4:13">
+    <row r="13" spans="4:13" ht="15.75">
       <c r="E13" s="7" t="s">
         <v>114</v>
       </c>
@@ -6037,7 +6104,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="4:13">
+    <row r="14" spans="4:13" ht="15.75">
       <c r="E14" s="7" t="s">
         <v>117</v>
       </c>
@@ -6078,23 +6145,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="8" width="12.19921875" customWidth="1"/>
-    <col min="9" max="9" width="18.69921875" customWidth="1"/>
-    <col min="10" max="10" width="20.69921875" customWidth="1"/>
-    <col min="11" max="1023" width="12.19921875" customWidth="1"/>
-    <col min="1024" max="1025" width="9.69921875" customWidth="1"/>
+    <col min="1" max="8" width="12.25" customWidth="1"/>
+    <col min="9" max="9" width="18.75" customWidth="1"/>
+    <col min="10" max="10" width="20.75" customWidth="1"/>
+    <col min="11" max="1023" width="12.25" customWidth="1"/>
+    <col min="1024" max="1025" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:14">
+    <row r="7" spans="4:14" ht="15.75">
       <c r="D7" s="8" t="s">
         <v>119</v>
       </c>
@@ -6129,7 +6196,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="4:14">
+    <row r="8" spans="4:14" ht="15.75">
       <c r="E8" s="8" t="s">
         <v>125</v>
       </c>
@@ -6161,7 +6228,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="4:14">
+    <row r="9" spans="4:14" ht="15.75">
       <c r="E9" s="8" t="s">
         <v>131</v>
       </c>
@@ -6193,7 +6260,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="4:14">
+    <row r="10" spans="4:14" ht="15.75">
       <c r="E10" s="8" t="s">
         <v>134</v>
       </c>
@@ -6225,7 +6292,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="4:14">
+    <row r="11" spans="4:14" ht="15.75">
       <c r="E11" s="8" t="s">
         <v>137</v>
       </c>
@@ -6265,27 +6332,27 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I13"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="20.19921875" customWidth="1"/>
+    <col min="3" max="3" width="20.25" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="45.296875" customWidth="1"/>
+    <col min="5" max="5" width="45.25" customWidth="1"/>
     <col min="6" max="6" width="49" customWidth="1"/>
-    <col min="7" max="7" width="35.19921875" customWidth="1"/>
-    <col min="8" max="8" width="16.296875" customWidth="1"/>
-    <col min="9" max="9" width="17.19921875" customWidth="1"/>
+    <col min="7" max="7" width="35.25" customWidth="1"/>
+    <col min="8" max="8" width="16.25" customWidth="1"/>
+    <col min="9" max="9" width="17.25" customWidth="1"/>
     <col min="10" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9">
+    <row r="7" spans="4:9" ht="15.75">
       <c r="D7" s="7" t="s">
         <v>140</v>
       </c>
@@ -6301,7 +6368,7 @@
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="4:9">
+    <row r="8" spans="4:9" ht="15.75">
       <c r="E8" s="20" t="s">
         <v>143</v>
       </c>
@@ -6316,7 +6383,7 @@
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="4:9">
+    <row r="9" spans="4:9" ht="15.75">
       <c r="E9" s="20" t="s">
         <v>143</v>
       </c>
@@ -6329,7 +6396,7 @@
         <v>organization.owner</v>
       </c>
     </row>
-    <row r="10" spans="4:9">
+    <row r="10" spans="4:9" ht="15.75">
       <c r="E10" s="20" t="s">
         <v>144</v>
       </c>
@@ -6342,7 +6409,7 @@
         <v>project.owner</v>
       </c>
     </row>
-    <row r="11" spans="4:9">
+    <row r="11" spans="4:9" ht="15.75">
       <c r="E11" s="20" t="s">
         <v>144</v>
       </c>
@@ -6355,7 +6422,7 @@
         <v>project.gitlab.owner</v>
       </c>
     </row>
-    <row r="12" spans="4:9">
+    <row r="12" spans="4:9" ht="15.75">
       <c r="E12" s="20" t="s">
         <v>145</v>
       </c>
@@ -6368,7 +6435,7 @@
         <v>project.gitlab.developer</v>
       </c>
     </row>
-    <row r="13" spans="4:9">
+    <row r="13" spans="4:9" ht="15.75">
       <c r="E13" s="20" t="s">
         <v>146</v>
       </c>
@@ -6389,25 +6456,25 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:H16"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="12.69921875" customWidth="1"/>
-    <col min="4" max="4" width="34.19921875" customWidth="1"/>
+    <col min="1" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="34.25" customWidth="1"/>
     <col min="5" max="5" width="43.5" customWidth="1"/>
-    <col min="6" max="6" width="42.19921875" customWidth="1"/>
+    <col min="6" max="6" width="42.25" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
     <col min="8" max="8" width="54.5" customWidth="1"/>
-    <col min="9" max="1025" width="12.69921875" customWidth="1"/>
+    <col min="9" max="1025" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8">
+    <row r="7" spans="4:8" ht="15.75">
       <c r="D7" s="18" t="s">
         <v>147</v>
       </c>
@@ -6424,7 +6491,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="4:8">
+    <row r="8" spans="4:8" ht="15.75">
       <c r="E8" s="7" t="s">
         <v>148</v>
       </c>
@@ -6438,7 +6505,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="4:8">
+    <row r="9" spans="4:8" ht="15.75">
       <c r="E9" s="7" t="s">
         <v>151</v>
       </c>
@@ -6452,7 +6519,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="4:8">
+    <row r="10" spans="4:8" ht="15.75">
       <c r="E10" s="7" t="s">
         <v>154</v>
       </c>
@@ -6466,7 +6533,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="4:8">
+    <row r="11" spans="4:8" ht="15.75">
       <c r="E11" s="7" t="s">
         <v>157</v>
       </c>
@@ -6480,7 +6547,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="4:8">
+    <row r="12" spans="4:8" ht="15.75">
       <c r="E12" s="7" t="s">
         <v>160</v>
       </c>
@@ -6494,7 +6561,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="4:8">
+    <row r="13" spans="4:8" ht="15.75">
       <c r="E13" s="7" t="s">
         <v>163</v>
       </c>
@@ -6508,7 +6575,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="4:8">
+    <row r="14" spans="4:8" ht="15.75">
       <c r="E14" s="7" t="s">
         <v>166</v>
       </c>
@@ -6522,7 +6589,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="4:8">
+    <row r="15" spans="4:8" ht="15.75">
       <c r="E15" s="7" t="s">
         <v>169</v>
       </c>
@@ -6536,7 +6603,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="4:8">
+    <row r="16" spans="4:8" ht="15.75">
       <c r="E16" s="8" t="s">
         <v>171</v>
       </c>
@@ -6558,23 +6625,23 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="3.296875" customWidth="1"/>
-    <col min="3" max="3" width="11.19921875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="3.25" customWidth="1"/>
+    <col min="3" max="3" width="11.25" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="6" width="10.5" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
     <col min="8" max="12" width="10.5" customWidth="1"/>
-    <col min="13" max="13" width="26.796875" customWidth="1"/>
+    <col min="13" max="13" width="26.75" customWidth="1"/>
     <col min="14" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6592,7 +6659,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" ht="15.75">
       <c r="D7" s="7" t="s">
         <v>174</v>
       </c>
@@ -6625,7 +6692,7 @@
       </c>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" ht="15.75">
       <c r="E8" s="14" t="s">
         <v>181</v>
       </c>
@@ -6653,7 +6720,7 @@
       </c>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" ht="15.75">
       <c r="E9" s="7" t="s">
         <v>185</v>
       </c>

--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -3031,7 +3031,8 @@
     <t>AGILE</t>
   </si>
   <si>
-    <t>敏捷项目</t>
+    <t>普通敏捷项目</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3475,6 +3476,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3489,15 +3499,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3860,11 +3861,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.150000000000006" customHeight="1">
       <c r="A1" s="30"/>
-      <c r="C1" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
+      <c r="C1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
       <c r="H1" s="31"/>
@@ -3873,21 +3874,21 @@
       <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:8" ht="49.15" customHeight="1">
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="54" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
     </row>
     <row r="4" spans="1:8" ht="30">
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="55"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="33" t="s">
         <v>4</v>
       </c>
@@ -3998,11 +3999,11 @@
       </c>
     </row>
     <row r="19" spans="3:5" ht="15.75">
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
     </row>
     <row r="20" spans="3:5" ht="15.75">
       <c r="C20" s="27" t="s">
@@ -4040,19 +4041,19 @@
       <c r="C25" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="52"/>
+      <c r="E25" s="55"/>
     </row>
     <row r="26" spans="3:5" ht="15.75" customHeight="1">
       <c r="C26" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="52" t="s">
+      <c r="D26" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="52"/>
+      <c r="E26" s="55"/>
     </row>
     <row r="27" spans="3:5" ht="30">
       <c r="C27" s="51" t="s">
@@ -4530,7 +4531,7 @@
   <dimension ref="D7:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4541,8 +4542,8 @@
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
     <col min="8" max="8" width="16.25" customWidth="1"/>
-    <col min="9" max="9" width="15.625" style="59" customWidth="1"/>
-    <col min="10" max="10" width="14.5" style="59" customWidth="1"/>
+    <col min="9" max="9" width="15.625" style="54" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="54" customWidth="1"/>
     <col min="11" max="1025" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4562,10 +4563,10 @@
       <c r="H7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="58" t="s">
+      <c r="I7" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="J7" s="58" t="s">
+      <c r="J7" s="53" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4576,36 +4577,36 @@
       <c r="F8" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="G8" s="57" t="s">
+      <c r="G8" s="52" t="s">
         <v>312</v>
       </c>
-      <c r="H8" s="57" t="s">
+      <c r="H8" s="52" t="s">
         <v>313</v>
       </c>
-      <c r="I8" s="58">
+      <c r="I8" s="53">
         <v>1</v>
       </c>
-      <c r="J8" s="58">
+      <c r="J8" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="4:10">
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="52" t="s">
         <v>315</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="F9" s="52" t="s">
         <v>315</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="G9" s="52" t="s">
         <v>314</v>
       </c>
-      <c r="H9" s="57" t="s">
+      <c r="H9" s="52" t="s">
         <v>314</v>
       </c>
-      <c r="I9" s="59">
+      <c r="I9" s="54">
         <v>1</v>
       </c>
-      <c r="J9" s="59">
+      <c r="J9" s="54">
         <v>1</v>
       </c>
     </row>
@@ -4616,16 +4617,16 @@
       <c r="F10" t="s">
         <v>316</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="52" t="s">
         <v>317</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="52" t="s">
         <v>317</v>
       </c>
-      <c r="I10" s="59">
+      <c r="I10" s="54">
         <v>1</v>
       </c>
-      <c r="J10" s="59">
+      <c r="J10" s="54">
         <v>1</v>
       </c>
     </row>
